--- a/inst/extdat/input-file-template.xlsx
+++ b/inst/extdat/input-file-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scottishepa-my.sharepoint.com/personal/tim_foster_sepa_org_uk/Documents/Documents/Projects/rict/inst/extdat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{4C34F92C-04E4-4F88-96D4-697A7ED4F27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:4000b_{4C34F92C-04E4-4F88-96D4-697A7ED4F27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47D6E895-FDE8-4D98-982E-BE44CB04534A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView minimized="1" xWindow="1956" yWindow="2148" windowWidth="16416" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Model 1 Test Data NI" sheetId="21" r:id="rId7"/>
     <sheet name="Model  1 Test Data IoM " sheetId="23" r:id="rId8"/>
     <sheet name="Model 44 Test Data GB" sheetId="15" r:id="rId9"/>
-    <sheet name="VERSION HISTORY" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="88">
   <si>
     <t>SITE</t>
   </si>
@@ -176,63 +175,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>Note of change</t>
-  </si>
-  <si>
-    <t>Author of change</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Nick Irvine</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.1</t>
-  </si>
-  <si>
-    <t>John Murray-Bligh</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.2</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>Original, re-named for RICT2 website live 30 March 2020</t>
-  </si>
-  <si>
-    <t>Example data for Northern Ireland added as a new worksheet (from NI single year classification experiment). Minor changes to Instructions. New worksheet for version history.</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.3</t>
-  </si>
-  <si>
     <t>OBJECTID</t>
   </si>
   <si>
@@ -281,58 +223,16 @@
     <t>shape_Length</t>
   </si>
   <si>
-    <t>New Input file wValidation wTestData v1.3a</t>
-  </si>
-  <si>
     <t>TST-GB-01-R</t>
   </si>
   <si>
     <t>TST-GB-01-D</t>
   </si>
   <si>
-    <t>GB warning limits corrected, GB Model 44 Input template and test data added (1-site)</t>
-  </si>
-  <si>
-    <t>GB warning limits corrected, GB Model 44 Input template and test data added (12-sites, licensed for internal use only)</t>
-  </si>
-  <si>
-    <t>Notes added to Instructions about red warnings for missing biological data and NGR must be upper-case; GB warning and fail test data added</t>
-  </si>
-  <si>
-    <t>Split into 3-worksheets to allow enhanced instructions about site and season code, season code pre-loaded into first line on INPUT FILE worksheet</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.3b (partner use only)</t>
-  </si>
-  <si>
     <t>Easting (5-fig unless leading zeroes)</t>
   </si>
   <si>
     <t>Northing (5-fig unless leading zeroes)</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.4</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.5</t>
-  </si>
-  <si>
-    <t>1.3a</t>
-  </si>
-  <si>
-    <t>1.3b (partner use only)</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>For RICT3 only, NI test datasets with northings and eastings converted from fully numeric to normal eastings and northings, following format of GB data</t>
-  </si>
-  <si>
-    <t>Interim version, not released, with additional worksheets with Functional Tests and Warning Limit tests</t>
   </si>
   <si>
     <t>MYR-GB-01-R</t>
@@ -410,8 +310,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,25 +332,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -506,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -528,53 +409,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,6 +591,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -776,6 +647,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -790,6 +682,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -804,6 +752,97 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -839,41 +878,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -909,69 +913,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1007,69 +948,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1084,6 +962,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1092,83 +1005,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1440,6 +1276,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1461,6 +1318,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1475,6 +1353,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1517,6 +1451,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1531,90 +1500,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1636,55 +1521,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1699,6 +1535,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1707,27 +1564,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1779,6 +1615,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1800,6 +1685,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1814,6 +1720,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1828,6 +1790,97 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1863,55 +1916,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1947,69 +1951,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2045,69 +1986,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2122,6 +2000,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2130,83 +2043,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2258,6 +2094,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2279,6 +2164,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2293,6 +2199,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2307,6 +2269,97 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2342,55 +2395,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2426,69 +2430,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2524,69 +2465,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2601,6 +2479,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2609,83 +2522,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3729,27 +3565,6 @@
               <a:spcPts val="1300"/>
             </a:lnSpc>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="1" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Input file version 3.1.4 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0" algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="1" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>RICT Version 3.1.4</a:t>
-          </a:r>
           <a:br>
             <a:rPr lang="en-GB" sz="1100" baseline="0">
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -4088,14 +3903,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4103,213 +3918,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" style="20"/>
-    <col min="2" max="2" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="15">
-        <v>43861</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15">
-        <v>37350</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="15">
-        <v>37374</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B5" s="23">
-        <v>43970</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="23">
-        <v>43972</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="26">
-        <v>44212</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="26">
-        <v>44212</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="26">
-        <v>44843</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="26">
-        <v>44936</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4319,35 +3929,35 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.42578125" style="1" customWidth="1"/>
-    <col min="27" max="28" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.44140625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.28515625" style="1" customWidth="1"/>
-    <col min="31" max="32" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.33203125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.28515625" style="1"/>
+    <col min="34" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4361,10 +3971,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -4448,7 +4058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4514,83 +4124,83 @@
     <cfRule type="cellIs" dxfId="300" priority="98" stopIfTrue="1" operator="greaterThan">
       <formula>1345</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="299" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="100" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="298" priority="100" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="101" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="297" priority="101" stopIfTrue="1" operator="greaterThan">
       <formula>590</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="cellIs" dxfId="299" priority="96" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="296" priority="96" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="295" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="297" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="67" stopIfTrue="1">
       <formula>ISTEXT($K2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="76" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="93" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="93" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="94" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="291" priority="94" stopIfTrue="1" operator="greaterThan">
       <formula>202.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="95" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="290" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M65536">
-    <cfRule type="expression" dxfId="294" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="65" stopIfTrue="1">
       <formula>ISTEXT($M2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="75" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="287" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="91" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="286" priority="91" stopIfTrue="1" operator="greaterThan">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>1.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="expression" dxfId="291" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="66" stopIfTrue="1">
       <formula>ISTEXT($L2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="74" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="88" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="281" priority="88" stopIfTrue="1" operator="greaterThan">
       <formula>117</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="288" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="71" stopIfTrue="1">
       <formula>ISTEXT($H2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="83" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="278" priority="83" stopIfTrue="1" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="84" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="277" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4598,31 +4208,31 @@
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="31" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="276" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="275" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="81" stopIfTrue="1">
       <formula>ISTEXT($J2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="283" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="79" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="282" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="63" stopIfTrue="1">
       <formula>ISTEXT(O2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="77" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="280" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="73" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4630,7 +4240,7 @@
     <cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="35" stopIfTrue="1">
       <formula>ISTEXT($I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4638,100 +4248,100 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="64" stopIfTrue="1">
       <formula>ISTEXT($N2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:AG65536 E3:F65536">
-    <cfRule type="expression" dxfId="277" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="14" stopIfTrue="1">
       <formula>ISTEXT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="276" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="58" stopIfTrue="1">
       <formula>SUM($O2:$R2)&lt;97</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="59" stopIfTrue="1">
       <formula>SUM($O2:$R2)&gt;103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="cellIs" dxfId="274" priority="56" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="264" priority="56" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="cellIs" dxfId="273" priority="55" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="263" priority="55" stopIfTrue="1" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="cellIs" dxfId="272" priority="54" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="262" priority="54" stopIfTrue="1" operator="notEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="271" priority="43" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="261" priority="43" stopIfTrue="1" operator="greaterThan">
       <formula>2027</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>1990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D65536">
-    <cfRule type="expression" dxfId="269" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="38" stopIfTrue="1">
       <formula>ISNUMBER($D3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="39" stopIfTrue="1">
       <formula>LEN($D3)&lt;&gt;1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="40" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="266" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="256" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="37" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="264" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="9" stopIfTrue="1">
       <formula>$I2&amp;$J2=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="33" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="253" priority="33" stopIfTrue="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="70" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="250" priority="70" stopIfTrue="1" operator="greaterThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="261" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="18" stopIfTrue="1">
       <formula>$I2&amp;$J2=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="30" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="248" priority="30" stopIfTrue="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="247" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536 S2:U65536">
-    <cfRule type="cellIs" dxfId="258" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="257" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4741,38 +4351,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="256" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="244" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X65536">
-    <cfRule type="expression" dxfId="255" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="12" stopIfTrue="1">
       <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="expression" dxfId="254" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="11" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="expression" dxfId="253" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="10" stopIfTrue="1">
       <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F2">
-    <cfRule type="expression" dxfId="252" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="1" stopIfTrue="1">
       <formula>ISTEXT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="251" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="2" stopIfTrue="1">
       <formula>ISNUMBER($D2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="3" stopIfTrue="1">
       <formula>LEN($D2)&lt;&gt;2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="4" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4782,41 +4392,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.42578125" style="1" customWidth="1"/>
-    <col min="27" max="28" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.44140625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.28515625" style="1" customWidth="1"/>
-    <col min="31" max="32" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.33203125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="174" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4830,10 +4440,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -4917,7 +4527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -4977,83 +4587,83 @@
     <cfRule type="cellIs" dxfId="232" priority="67" stopIfTrue="1" operator="greaterThan">
       <formula>850</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="231" priority="68" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="69" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="230" priority="69" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="70" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="229" priority="70" stopIfTrue="1" operator="greaterThan">
       <formula>180</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="cellIs" dxfId="231" priority="65" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="228" priority="65" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="229" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="40" stopIfTrue="1">
       <formula>ISTEXT($K2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="49" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="63" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="223" priority="63" stopIfTrue="1" operator="greaterThan">
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="222" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>2.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M65536">
-    <cfRule type="expression" dxfId="226" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="38" stopIfTrue="1">
       <formula>ISTEXT($M2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="48" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="59" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="219" priority="59" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="60" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="218" priority="60" stopIfTrue="1" operator="greaterThan">
       <formula>183</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="expression" dxfId="223" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="39" stopIfTrue="1">
       <formula>ISTEXT($L2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="47" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="56" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="214" priority="56" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="57" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="213" priority="57" stopIfTrue="1" operator="greaterThan">
       <formula>37.2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="212" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="220" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="44" stopIfTrue="1">
       <formula>ISTEXT($H2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="54" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="210" priority="54" stopIfTrue="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5061,31 +4671,31 @@
     <cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="208" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="41" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="41" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="53" stopIfTrue="1">
       <formula>ISTEXT($J2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="215" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="52" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="214" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="36" stopIfTrue="1">
       <formula>ISTEXT(O2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="50" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="212" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="46" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5093,7 +4703,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="20" stopIfTrue="1">
       <formula>ISTEXT($I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5101,100 +4711,100 @@
     <cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="37" stopIfTrue="1">
       <formula>ISTEXT($N2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:AG65536 E3:F65536">
-    <cfRule type="expression" dxfId="209" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="10" stopIfTrue="1">
       <formula>ISTEXT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="208" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="31" stopIfTrue="1">
       <formula>SUM($O2:$R2)&lt;97</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="32" stopIfTrue="1">
       <formula>SUM($O2:$R2)&gt;103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="cellIs" dxfId="206" priority="30" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="196" priority="30" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="cellIs" dxfId="205" priority="29" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="195" priority="29" stopIfTrue="1" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="cellIs" dxfId="204" priority="28" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="194" priority="28" stopIfTrue="1" operator="notEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="203" priority="26" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="193" priority="26" stopIfTrue="1" operator="greaterThan">
       <formula>2027</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="192" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>1990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D65536">
-    <cfRule type="expression" dxfId="201" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="23" stopIfTrue="1">
       <formula>ISNUMBER($D3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="24" stopIfTrue="1">
       <formula>LEN($D3)&lt;&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="25" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="198" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="22" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="196" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="5" stopIfTrue="1">
       <formula>$I2&amp;$J2=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="18" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="18" stopIfTrue="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="184" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="183" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="43" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="43" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="193" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="13" stopIfTrue="1">
       <formula>$I2&amp;$J2=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="15" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="15" stopIfTrue="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536 S2:U65536">
-    <cfRule type="cellIs" dxfId="190" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="178" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="189" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="177" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5204,38 +4814,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="188" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X65536">
-    <cfRule type="expression" dxfId="187" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="8" stopIfTrue="1">
       <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="expression" dxfId="186" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="7" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="expression" dxfId="185" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="6" stopIfTrue="1">
       <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F2">
-    <cfRule type="expression" dxfId="184" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="1" stopIfTrue="1">
       <formula>ISTEXT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="183" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="2" stopIfTrue="1">
       <formula>ISNUMBER($D2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="3" stopIfTrue="1">
       <formula>LEN($D2)&lt;&gt;1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="4" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5244,39 +4854,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.44140625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.28515625" style="1" customWidth="1"/>
-    <col min="25" max="26" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.33203125" style="1" customWidth="1"/>
+    <col min="25" max="26" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="174" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5290,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -5359,7 +4969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -5413,41 +5023,41 @@
     <cfRule type="cellIs" dxfId="164" priority="63" stopIfTrue="1" operator="greaterThan">
       <formula>621</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="66" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="66" stopIfTrue="1" operator="greaterThan">
       <formula>113</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="163" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="36" stopIfTrue="1">
       <formula>ISTEXT($K2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="45" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="59" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="59" stopIfTrue="1" operator="greaterThan">
       <formula>202.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="160" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="40" stopIfTrue="1">
       <formula>ISTEXT($H2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="50" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="50" stopIfTrue="1" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5455,23 +5065,23 @@
     <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="49" stopIfTrue="1">
       <formula>ISTEXT($J2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="155" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="48" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="154" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="42" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5479,7 +5089,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="16" stopIfTrue="1">
       <formula>ISTEXT($I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5487,92 +5097,92 @@
     <cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="33" stopIfTrue="1">
       <formula>ISTEXT($L2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:AA65536 E2:F65536">
-    <cfRule type="expression" dxfId="151" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="6" stopIfTrue="1">
       <formula>ISTEXT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P65536">
-    <cfRule type="cellIs" dxfId="150" priority="26" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="144" priority="26" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T65536">
-    <cfRule type="cellIs" dxfId="149" priority="25" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="143" priority="25" stopIfTrue="1" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X65536">
-    <cfRule type="cellIs" dxfId="148" priority="24" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="142" priority="24" stopIfTrue="1" operator="notEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="147" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>2027</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>1990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D65536">
-    <cfRule type="expression" dxfId="145" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="19" stopIfTrue="1">
       <formula>ISNUMBER($D2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="20" stopIfTrue="1">
       <formula>LEN($D2)&lt;&gt;2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="21" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="142" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="18" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="140" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="1" stopIfTrue="1">
       <formula>$I2&amp;$J2=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="132" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="39" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="137" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="9" stopIfTrue="1">
       <formula>$I2&amp;$J2=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:O65536">
-    <cfRule type="cellIs" dxfId="134" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O65536">
-    <cfRule type="cellIs" dxfId="133" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5582,22 +5192,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O65536">
-    <cfRule type="cellIs" dxfId="132" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R65536">
-    <cfRule type="expression" dxfId="131" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="4" stopIfTrue="1">
       <formula>LEN(RIGHT($R2,LEN($R2)-FIND(".",$Q2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="expression" dxfId="130" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="3" stopIfTrue="1">
       <formula>LEN(RIGHT($Z2,LEN($Z2)-FIND(".",$Z2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="expression" dxfId="129" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="2" stopIfTrue="1">
       <formula>LEN(RIGHT($V2,LEN($V2)-FIND(".",$V2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5607,49 +5217,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" style="1" customWidth="1"/>
-    <col min="20" max="23" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" style="1" customWidth="1"/>
+    <col min="20" max="23" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.42578125" style="1" customWidth="1"/>
-    <col min="33" max="34" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.44140625" style="1" customWidth="1"/>
+    <col min="33" max="34" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.28515625" style="1" customWidth="1"/>
-    <col min="37" max="38" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.33203125" style="1" customWidth="1"/>
+    <col min="37" max="38" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="5" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.28515625" style="1"/>
+    <col min="40" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5680,56 +5290,56 @@
       <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="25" t="s">
+      <c r="K1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>78</v>
+      <c r="Q1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>10</v>
@@ -5768,7 +5378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -5967,7 +5577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5977,35 +5587,35 @@
       <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.42578125" style="1" customWidth="1"/>
-    <col min="27" max="28" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.44140625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.28515625" style="1" customWidth="1"/>
-    <col min="31" max="32" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.33203125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.28515625" style="1"/>
+    <col min="34" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6106,9 +5716,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B2"/>
       <c r="C2">
@@ -6197,9 +5807,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B3"/>
       <c r="C3">
@@ -6288,9 +5898,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B4"/>
       <c r="C4">
@@ -6379,9 +5989,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B5"/>
       <c r="C5">
@@ -6470,9 +6080,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B6"/>
       <c r="C6">
@@ -6561,9 +6171,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B7"/>
       <c r="C7">
@@ -6652,9 +6262,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B8"/>
       <c r="C8">
@@ -6743,9 +6353,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B9"/>
       <c r="C9">
@@ -6834,9 +6444,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B10"/>
       <c r="C10">
@@ -6925,9 +6535,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B11"/>
       <c r="C11">
@@ -7016,9 +6626,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B12"/>
       <c r="C12">
@@ -7107,9 +6717,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B13"/>
       <c r="C13">
@@ -7198,9 +6808,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B14"/>
       <c r="C14">
@@ -7289,9 +6899,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B15"/>
       <c r="C15">
@@ -7380,9 +6990,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B16"/>
       <c r="C16">
@@ -7471,9 +7081,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B17"/>
       <c r="C17">
@@ -7562,9 +7172,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B18"/>
       <c r="C18">
@@ -7653,9 +7263,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B19"/>
       <c r="C19">
@@ -7744,9 +7354,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B20"/>
       <c r="C20">
@@ -7835,9 +7445,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B21"/>
       <c r="C21">
@@ -7926,9 +7536,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B22"/>
       <c r="C22">
@@ -8017,9 +7627,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B23"/>
       <c r="C23">
@@ -8108,9 +7718,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B24"/>
       <c r="C24">
@@ -8199,9 +7809,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B25"/>
       <c r="C25">
@@ -8309,83 +7919,83 @@
     <cfRule type="cellIs" dxfId="85" priority="63" stopIfTrue="1" operator="greaterThan">
       <formula>1345</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="66" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="66" stopIfTrue="1" operator="greaterThan">
       <formula>590</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="cellIs" dxfId="84" priority="61" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="61" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="62" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="82" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="36" stopIfTrue="1">
       <formula>ISTEXT($K2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="45" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="58" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="58" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="59" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="59" stopIfTrue="1" operator="greaterThan">
       <formula>202.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="60" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M65536">
-    <cfRule type="expression" dxfId="79" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="34" stopIfTrue="1">
       <formula>ISTEXT($M2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="44" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="55" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="56" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="56" stopIfTrue="1" operator="greaterThan">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="57" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="57" stopIfTrue="1" operator="lessThan">
       <formula>1.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="expression" dxfId="76" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="35" stopIfTrue="1">
       <formula>ISTEXT($L2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="43" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="53" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="53" stopIfTrue="1" operator="greaterThan">
       <formula>117</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="73" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="40" stopIfTrue="1">
       <formula>ISTEXT($H2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="50" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="50" stopIfTrue="1" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8393,31 +8003,31 @@
     <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="37" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="37" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
       <formula>ISTEXT($J2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="68" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="48" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="67" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="32" stopIfTrue="1">
       <formula>ISTEXT(O2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="46" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="65" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="42" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8425,7 +8035,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="16" stopIfTrue="1">
       <formula>ISTEXT($I2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8433,100 +8043,100 @@
     <cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="33" stopIfTrue="1">
       <formula>ISTEXT($N2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:AG65536 E2:F65536">
-    <cfRule type="expression" dxfId="62" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
       <formula>ISTEXT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65534">
-    <cfRule type="expression" dxfId="61" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="27" stopIfTrue="1">
       <formula>SUM($O2:$R2)&lt;97</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
       <formula>SUM($O2:$R2)&gt;103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="cellIs" dxfId="59" priority="26" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="49" priority="26" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="cellIs" dxfId="58" priority="25" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="cellIs" dxfId="57" priority="24" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="24" stopIfTrue="1" operator="notEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="56" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>2027</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>1990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D65536">
-    <cfRule type="expression" dxfId="54" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="19" stopIfTrue="1">
       <formula>ISNUMBER($D2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="20" stopIfTrue="1">
       <formula>LEN($D2)&lt;&gt;2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="21" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="51" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="18" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="49" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
       <formula>$I2&amp;$J2=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="14" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="14" stopIfTrue="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="39" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="46" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
       <formula>$I2&amp;$J2=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536 S2:U65536">
-    <cfRule type="cellIs" dxfId="43" priority="30" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="42" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8536,30 +8146,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="41" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X65536">
-    <cfRule type="expression" dxfId="40" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="4" stopIfTrue="1">
       <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
       <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65535:R65536">
-    <cfRule type="expression" dxfId="37" priority="180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="180" stopIfTrue="1">
       <formula>SUM($O65535:$R65536)&lt;97</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="181" stopIfTrue="1">
       <formula>SUM($O65535:$R65536)&gt;103</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8569,16 +8179,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
@@ -8590,18 +8200,18 @@
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="6" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="6" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8702,7 +8312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -8788,7 +8398,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -8874,7 +8484,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -8960,7 +8570,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -9046,7 +8656,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -9132,7 +8742,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -9218,7 +8828,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -9304,7 +8914,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -9390,7 +9000,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -9476,9 +9086,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>2018</v>
@@ -9562,9 +9172,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>2016</v>
@@ -9648,9 +9258,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>2018</v>
@@ -9734,7 +9344,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -9820,7 +9430,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -9906,7 +9516,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -9992,7 +9602,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -10078,7 +9688,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -10164,7 +9774,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -10250,7 +9860,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -10336,7 +9946,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -10422,7 +10032,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -10508,9 +10118,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C23">
         <v>2018</v>
@@ -10594,9 +10204,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C24">
         <v>2016</v>
@@ -10680,9 +10290,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C25">
         <v>2018</v>
@@ -10786,17 +10396,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
@@ -10806,18 +10416,18 @@
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="174" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10900,18 +10510,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>40000</v>
@@ -10971,18 +10581,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>2017</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>40000</v>
@@ -11042,18 +10652,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>40000</v>
@@ -11113,18 +10723,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>2016</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>39840</v>
@@ -11184,18 +10794,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E6">
         <v>39840</v>
@@ -11255,18 +10865,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <v>39840</v>
@@ -11326,18 +10936,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>25800</v>
@@ -11397,18 +11007,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>2016</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E9">
         <v>39000</v>
@@ -11468,18 +11078,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>39000</v>
@@ -11539,18 +11149,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E11">
         <v>39000</v>
@@ -11610,18 +11220,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>35840</v>
@@ -11681,18 +11291,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>2018</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E13">
         <v>35840</v>
@@ -11752,18 +11362,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>2016</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>40000</v>
@@ -11823,18 +11433,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E15">
         <v>40000</v>
@@ -11894,18 +11504,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>2018</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>40000</v>
@@ -11965,18 +11575,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>2016</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E17">
         <v>39840</v>
@@ -12036,18 +11646,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>2017</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E18">
         <v>39840</v>
@@ -12107,18 +11717,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <v>2018</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <v>39840</v>
@@ -12178,18 +11788,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>2017</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E20">
         <v>25800</v>
@@ -12249,18 +11859,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>2016</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E21">
         <v>39000</v>
@@ -12320,18 +11930,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>2017</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E22">
         <v>39000</v>
@@ -12391,18 +12001,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>2018</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E23">
         <v>39000</v>
@@ -12462,18 +12072,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>2016</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>35840</v>
@@ -12533,18 +12143,18 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>2018</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E25">
         <v>35840</v>
@@ -12611,49 +12221,49 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" style="1" customWidth="1"/>
-    <col min="20" max="23" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" style="1" customWidth="1"/>
+    <col min="20" max="23" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.42578125" style="1" customWidth="1"/>
-    <col min="33" max="34" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.44140625" style="1" customWidth="1"/>
+    <col min="33" max="34" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.28515625" style="1" customWidth="1"/>
-    <col min="37" max="38" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.33203125" style="1" customWidth="1"/>
+    <col min="37" max="38" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="5" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.28515625" style="1"/>
+    <col min="40" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12684,56 +12294,56 @@
       <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="25" t="s">
+      <c r="K1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>78</v>
+      <c r="Q1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>10</v>
@@ -12772,9 +12382,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C2" s="10">
         <v>2018</v>
@@ -12882,9 +12492,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>2018</v>
@@ -12989,9 +12599,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C4" s="10">
         <v>2019</v>
@@ -13099,9 +12709,9 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1">
         <v>2019</v>

--- a/inst/extdat/input-file-template.xlsx
+++ b/inst/extdat/input-file-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scottishepa-my.sharepoint.com/personal/tim_foster_sepa_org_uk/Documents/Documents/Projects/rict/inst/extdat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim.Foster\Documents\r-projects\rict\inst\extdat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:4000b_{4C34F92C-04E4-4F88-96D4-697A7ED4F27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47D6E895-FDE8-4D98-982E-BE44CB04534A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE8EE3-8645-42E9-B0B5-6EB2CB92EEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1956" yWindow="2148" windowWidth="16416" windowHeight="9984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -387,9 +387,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -404,11 +404,6 @@
       <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -416,7 +411,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="305">
+  <dxfs count="266">
     <dxf>
       <fill>
         <patternFill>
@@ -477,13 +472,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -542,6 +530,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -626,6 +628,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -662,349 +671,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1070,48 +736,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1133,13 +757,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1168,6 +785,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1190,6 +814,251 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1220,6 +1089,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1297,6 +1173,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1305,286 +1209,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1622,48 +1246,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1713,6 +1295,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1727,55 +1323,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1783,6 +1330,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1790,97 +1365,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1895,6 +1379,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1902,6 +1414,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1909,13 +1442,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1923,6 +1449,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1930,27 +1519,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1958,112 +1526,49 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2087,6 +1592,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2101,48 +1613,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2150,6 +1620,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2157,34 +1634,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2192,6 +1641,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2206,55 +1669,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2262,6 +1676,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2283,83 +1704,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2367,6 +1711,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2374,6 +1732,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2381,6 +1746,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2395,6 +1767,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2430,6 +1816,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2465,6 +1893,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2514,35 +1977,14 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2566,7 +2008,287 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3132,7 +2854,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ave your completed template as a CSV (comma delimited) file. To do that, select File &gt; Save As, then in file type dropdown menu replace  '...Excel .xls' with 'CSV (comma delimited)'. Only the current worksheet will be saved. This CSV file can be uploaded to RICT.  </a:t>
+            <a:t>ave your completed template as a CSV (comma delimited) file. To do that, select File &gt; Save As, then in file type dropdown menu replace  '...Excel .xlsx' with 'CSV (comma delimited)'. Only the current worksheet will be saved. This CSV file can be uploaded to RICT.  </a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" b="0">
             <a:effectLst/>
@@ -3584,9 +3306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3624,9 +3346,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3659,26 +3381,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3711,26 +3416,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3906,11 +3594,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3929,35 +3617,35 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.44140625" style="1" customWidth="1"/>
-    <col min="27" max="28" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.33203125" style="1" customWidth="1"/>
-    <col min="31" max="32" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.28515625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.33203125" style="1"/>
+    <col min="34" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3970,10 +3658,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -4058,10 +3746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -4071,319 +3756,255 @@
       <c r="F2">
         <v>91000</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10">
+      <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10">
+      <c r="Z2" s="1">
         <v>2</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N65536">
-    <cfRule type="cellIs" dxfId="304" priority="102" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
+  <conditionalFormatting sqref="A2:A65536">
+    <cfRule type="cellIs" dxfId="265" priority="79" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C65536">
+    <cfRule type="cellIs" dxfId="264" priority="43" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="262" priority="73" stopIfTrue="1">
+      <formula>ISTEXT($C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="261" priority="3" stopIfTrue="1">
+      <formula>LEN($D2)&lt;&gt;2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="4" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D65536">
+    <cfRule type="expression" dxfId="259" priority="2" stopIfTrue="1">
+      <formula>ISNUMBER($D2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D65536">
+    <cfRule type="expression" dxfId="258" priority="39" stopIfTrue="1">
+      <formula>LEN($D3)&lt;&gt;1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="40" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F65536">
+    <cfRule type="expression" dxfId="256" priority="1" stopIfTrue="1">
+      <formula>ISTEXT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="expression" dxfId="302" priority="72" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="255" priority="78" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="72" stopIfTrue="1">
       <formula>ISTEXT($G2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="101" stopIfTrue="1" operator="greaterThan">
+      <formula>590</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="98" stopIfTrue="1" operator="greaterThan">
+      <formula>1345</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H65536">
+    <cfRule type="expression" dxfId="249" priority="71" stopIfTrue="1">
+      <formula>ISTEXT($H2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="37" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="98" stopIfTrue="1" operator="greaterThan">
-      <formula>1345</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="246" priority="83" stopIfTrue="1" operator="greaterThan">
+      <formula>150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I65536">
+    <cfRule type="cellIs" dxfId="245" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="100" stopIfTrue="1" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I65536">
+    <cfRule type="cellIs" dxfId="244" priority="70" stopIfTrue="1" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="243" priority="35" stopIfTrue="1">
+      <formula>ISTEXT($I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J65536">
+    <cfRule type="expression" dxfId="242" priority="9" stopIfTrue="1">
+      <formula>$I2&amp;$J2=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="101" stopIfTrue="1" operator="greaterThan">
-      <formula>590</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="cellIs" dxfId="296" priority="96" stopIfTrue="1" operator="greaterThan">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="294" priority="67" stopIfTrue="1">
-      <formula>ISTEXT($K2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="76" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="94" stopIfTrue="1" operator="greaterThan">
-      <formula>202.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M65536">
-    <cfRule type="expression" dxfId="289" priority="65" stopIfTrue="1">
-      <formula>ISTEXT($M2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="75" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="91" stopIfTrue="1" operator="greaterThan">
-      <formula>300</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>1.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="expression" dxfId="284" priority="66" stopIfTrue="1">
-      <formula>ISTEXT($L2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="74" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="88" stopIfTrue="1" operator="greaterThan">
-      <formula>117</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="279" priority="71" stopIfTrue="1">
-      <formula>ISTEXT($H2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="83" stopIfTrue="1" operator="greaterThan">
-      <formula>150</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="31" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="240" priority="30" stopIfTrue="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J65536">
+    <cfRule type="cellIs" dxfId="239" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="274" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="81" stopIfTrue="1">
       <formula>ISTEXT($J2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="273" priority="79" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K2:K65536">
+    <cfRule type="cellIs" dxfId="236" priority="94" stopIfTrue="1" operator="greaterThan">
+      <formula>202.8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="235" priority="67" stopIfTrue="1">
+      <formula>ISTEXT($K2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:M65536">
+    <cfRule type="cellIs" dxfId="233" priority="74" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="272" priority="63" stopIfTrue="1">
-      <formula>ISTEXT(O2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="77" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="270" priority="73" stopIfTrue="1">
-      <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="269" priority="35" stopIfTrue="1">
-      <formula>ISTEXT($I2)</formula>
+    <cfRule type="cellIs" dxfId="232" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L65536">
+    <cfRule type="cellIs" dxfId="231" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="88" stopIfTrue="1" operator="greaterThan">
+      <formula>117</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="66" stopIfTrue="1">
+      <formula>ISTEXT($L2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M65536">
+    <cfRule type="cellIs" dxfId="228" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>1.7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="227" priority="65" stopIfTrue="1">
+      <formula>ISTEXT($M2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="91" stopIfTrue="1" operator="greaterThan">
+      <formula>300</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N65536 S2:U65536">
+    <cfRule type="cellIs" dxfId="225" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536">
+    <cfRule type="cellIs" dxfId="224" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="64" stopIfTrue="1">
       <formula>ISTEXT($N2)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:AG65536 E3:F65536">
-    <cfRule type="expression" dxfId="267" priority="14" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
+    <cfRule type="cellIs" dxfId="222" priority="102" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="266" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="63" stopIfTrue="1">
+      <formula>ISTEXT(O2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="59" stopIfTrue="1">
+      <formula>SUM($O2:$R2)&gt;103</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="77" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="58" stopIfTrue="1">
       <formula>SUM($O2:$R2)&lt;97</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="59" stopIfTrue="1">
-      <formula>SUM($O2:$R2)&gt;103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="cellIs" dxfId="264" priority="56" stopIfTrue="1" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="cellIs" dxfId="263" priority="55" stopIfTrue="1" operator="notEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="cellIs" dxfId="262" priority="54" stopIfTrue="1" operator="notEqual">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="261" priority="43" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D65536">
-    <cfRule type="expression" dxfId="259" priority="38" stopIfTrue="1">
-      <formula>ISNUMBER($D3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="258" priority="39" stopIfTrue="1">
-      <formula>LEN($D3)&lt;&gt;1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="40" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="256" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="96" stopIfTrue="1" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="37" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="254" priority="9" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="33" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="70" stopIfTrue="1" operator="greaterThan">
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="249" priority="18" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="30" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N65536 S2:U65536">
-    <cfRule type="cellIs" dxfId="246" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="245" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="244" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="215" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:AG65536">
+    <cfRule type="expression" dxfId="213" priority="14" stopIfTrue="1">
+      <formula>ISTEXT(S2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V65536">
+    <cfRule type="cellIs" dxfId="212" priority="56" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X65536">
-    <cfRule type="expression" dxfId="243" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="12" stopIfTrue="1">
       <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z65536">
+    <cfRule type="cellIs" dxfId="210" priority="55" stopIfTrue="1" operator="notEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB65536">
+    <cfRule type="expression" dxfId="209" priority="10" stopIfTrue="1">
+      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD65536">
+    <cfRule type="cellIs" dxfId="208" priority="54" stopIfTrue="1" operator="notEqual">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="expression" dxfId="242" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="11" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="expression" dxfId="241" priority="10" stopIfTrue="1">
-      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F2">
-    <cfRule type="expression" dxfId="240" priority="1" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="239" priority="2" stopIfTrue="1">
-      <formula>ISNUMBER($D2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="238" priority="3" stopIfTrue="1">
-      <formula>LEN($D2)&lt;&gt;2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="4" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.47244094488188981" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4399,34 +4020,34 @@
       <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.44140625" style="1" customWidth="1"/>
-    <col min="27" max="28" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.33203125" style="1" customWidth="1"/>
-    <col min="31" max="32" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.28515625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="167.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4439,10 +4060,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -4527,326 +4148,259 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10">
+      <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10">
+      <c r="Z2" s="1">
         <v>2</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N65536">
-    <cfRule type="cellIs" dxfId="236" priority="71" stopIfTrue="1" operator="greaterThan">
-      <formula>130</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0.7</formula>
+  <conditionalFormatting sqref="A2:A65536">
+    <cfRule type="cellIs" dxfId="206" priority="52" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C65536">
+    <cfRule type="cellIs" dxfId="205" priority="26" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="203" priority="46" stopIfTrue="1">
+      <formula>ISTEXT($C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="202" priority="3" stopIfTrue="1">
+      <formula>LEN($D2)&lt;&gt;1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="4" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D65536">
+    <cfRule type="expression" dxfId="200" priority="2" stopIfTrue="1">
+      <formula>ISNUMBER($D2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D65536">
+    <cfRule type="expression" dxfId="199" priority="24" stopIfTrue="1">
+      <formula>LEN($D3)&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="25" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F65536">
+    <cfRule type="expression" dxfId="197" priority="1" stopIfTrue="1">
+      <formula>ISTEXT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="expression" dxfId="234" priority="45" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="196" priority="51" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="45" stopIfTrue="1">
       <formula>ISTEXT($G2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="70" stopIfTrue="1" operator="greaterThan">
+      <formula>180</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="67" stopIfTrue="1" operator="greaterThan">
+      <formula>850</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H65536">
+    <cfRule type="expression" dxfId="190" priority="44" stopIfTrue="1">
+      <formula>ISTEXT($H2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="22" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="67" stopIfTrue="1" operator="greaterThan">
-      <formula>850</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="68" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="187" priority="54" stopIfTrue="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I65536">
+    <cfRule type="cellIs" dxfId="186" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="69" stopIfTrue="1" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I65536">
+    <cfRule type="cellIs" dxfId="185" priority="43" stopIfTrue="1" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="20" stopIfTrue="1">
+      <formula>ISTEXT($I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J65536">
+    <cfRule type="expression" dxfId="183" priority="5" stopIfTrue="1">
+      <formula>$I2&amp;$J2=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="70" stopIfTrue="1" operator="greaterThan">
-      <formula>180</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="cellIs" dxfId="228" priority="65" stopIfTrue="1" operator="greaterThan">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="226" priority="40" stopIfTrue="1">
-      <formula>ISTEXT($K2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="49" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="63" stopIfTrue="1" operator="greaterThan">
-      <formula>75</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>2.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M65536">
-    <cfRule type="expression" dxfId="221" priority="38" stopIfTrue="1">
-      <formula>ISTEXT($M2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="48" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="60" stopIfTrue="1" operator="greaterThan">
-      <formula>183</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="expression" dxfId="216" priority="39" stopIfTrue="1">
-      <formula>ISTEXT($L2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="47" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="57" stopIfTrue="1" operator="greaterThan">
-      <formula>37.2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="211" priority="44" stopIfTrue="1">
-      <formula>ISTEXT($H2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="54" stopIfTrue="1" operator="greaterThan">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
     <cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="15" stopIfTrue="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J65536">
+    <cfRule type="cellIs" dxfId="180" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="206" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="53" stopIfTrue="1">
       <formula>ISTEXT($J2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="205" priority="52" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K2:K65536">
+    <cfRule type="cellIs" dxfId="177" priority="63" stopIfTrue="1" operator="greaterThan">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="40" stopIfTrue="1">
+      <formula>ISTEXT($K2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>2.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:M65536">
+    <cfRule type="cellIs" dxfId="174" priority="47" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="204" priority="36" stopIfTrue="1">
-      <formula>ISTEXT(O2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="50" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="202" priority="46" stopIfTrue="1">
-      <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="20" stopIfTrue="1">
-      <formula>ISTEXT($I2)</formula>
+    <cfRule type="cellIs" dxfId="173" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L65536">
+    <cfRule type="cellIs" dxfId="172" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="57" stopIfTrue="1" operator="greaterThan">
+      <formula>37.2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="39" stopIfTrue="1">
+      <formula>ISTEXT($L2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M65536">
+    <cfRule type="cellIs" dxfId="169" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="38" stopIfTrue="1">
+      <formula>ISTEXT($M2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="60" stopIfTrue="1" operator="greaterThan">
+      <formula>183</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N65536 S2:U65536">
+    <cfRule type="cellIs" dxfId="166" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536">
+    <cfRule type="cellIs" dxfId="165" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0.7</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="37" stopIfTrue="1">
       <formula>ISTEXT($N2)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:AG65536 E3:F65536">
-    <cfRule type="expression" dxfId="199" priority="10" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
+    <cfRule type="cellIs" dxfId="163" priority="71" stopIfTrue="1" operator="greaterThan">
+      <formula>130</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="198" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="36" stopIfTrue="1">
+      <formula>ISTEXT(O2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="32" stopIfTrue="1">
+      <formula>SUM($O2:$R2)&gt;103</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="50" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="31" stopIfTrue="1">
       <formula>SUM($O2:$R2)&lt;97</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="32" stopIfTrue="1">
-      <formula>SUM($O2:$R2)&gt;103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="cellIs" dxfId="196" priority="30" stopIfTrue="1" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="cellIs" dxfId="195" priority="29" stopIfTrue="1" operator="notEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="cellIs" dxfId="194" priority="28" stopIfTrue="1" operator="notEqual">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="193" priority="26" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D65536">
-    <cfRule type="expression" dxfId="191" priority="23" stopIfTrue="1">
-      <formula>ISNUMBER($D3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="24" stopIfTrue="1">
-      <formula>LEN($D3)&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="25" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="188" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="65" stopIfTrue="1" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="22" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="186" priority="5" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="18" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="43" stopIfTrue="1" operator="greaterThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="181" priority="13" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="15" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N65536 S2:U65536">
-    <cfRule type="cellIs" dxfId="178" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="177" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="176" priority="11" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="11" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:AG65536">
+    <cfRule type="expression" dxfId="154" priority="10" stopIfTrue="1">
+      <formula>ISTEXT(S2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V65536">
+    <cfRule type="cellIs" dxfId="153" priority="30" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X65536">
-    <cfRule type="expression" dxfId="175" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="8" stopIfTrue="1">
       <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z65536">
+    <cfRule type="cellIs" dxfId="151" priority="29" stopIfTrue="1" operator="notEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB65536">
+    <cfRule type="expression" dxfId="150" priority="6" stopIfTrue="1">
+      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD65536">
+    <cfRule type="cellIs" dxfId="149" priority="28" stopIfTrue="1" operator="notEqual">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="expression" dxfId="174" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="7" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="expression" dxfId="173" priority="6" stopIfTrue="1">
-      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F2">
-    <cfRule type="expression" dxfId="172" priority="1" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="171" priority="2" stopIfTrue="1">
-      <formula>ISNUMBER($D2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="170" priority="3" stopIfTrue="1">
-      <formula>LEN($D2)&lt;&gt;1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="4" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4861,32 +4415,32 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.44140625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" style="1" customWidth="1"/>
+    <col min="21" max="22" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.33203125" style="1" customWidth="1"/>
-    <col min="25" max="26" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.28515625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="167.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4899,10 +4453,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -4969,246 +4523,194 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10">
+      <c r="T2" s="1">
         <v>2</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
+      <c r="X2" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="cellIs" dxfId="168" priority="67" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
+  <conditionalFormatting sqref="A2:A65536">
+    <cfRule type="cellIs" dxfId="147" priority="48" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C65536">
+    <cfRule type="expression" dxfId="146" priority="42" stopIfTrue="1">
+      <formula>ISTEXT($C2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="22" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D65536">
+    <cfRule type="expression" dxfId="143" priority="19" stopIfTrue="1">
+      <formula>ISNUMBER($D2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="20" stopIfTrue="1">
+      <formula>LEN($D2)&lt;&gt;2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="21" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="expression" dxfId="166" priority="41" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="140" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="63" stopIfTrue="1" operator="greaterThan">
+      <formula>621</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="47" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="41" stopIfTrue="1">
       <formula>ISTEXT($G2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="66" stopIfTrue="1" operator="greaterThan">
+      <formula>113</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H65536">
+    <cfRule type="cellIs" dxfId="134" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="50" stopIfTrue="1" operator="greaterThan">
+      <formula>150</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="18" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="63" stopIfTrue="1" operator="greaterThan">
-      <formula>621</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="expression" dxfId="131" priority="40" stopIfTrue="1">
+      <formula>ISTEXT($H2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I65536">
+    <cfRule type="cellIs" dxfId="130" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="65" stopIfTrue="1" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I65536">
+    <cfRule type="expression" dxfId="129" priority="16" stopIfTrue="1">
+      <formula>ISTEXT($I2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="39" stopIfTrue="1" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J65536">
+    <cfRule type="expression" dxfId="127" priority="1" stopIfTrue="1">
+      <formula>$I2&amp;$J2=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="66" stopIfTrue="1" operator="greaterThan">
-      <formula>113</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="160" priority="36" stopIfTrue="1">
-      <formula>ISTEXT($K2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="45" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="59" stopIfTrue="1" operator="greaterThan">
-      <formula>202.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="155" priority="40" stopIfTrue="1">
-      <formula>ISTEXT($H2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="50" stopIfTrue="1" operator="greaterThan">
-      <formula>150</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
     <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J65536">
+    <cfRule type="expression" dxfId="124" priority="49" stopIfTrue="1">
+      <formula>ISTEXT($J2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="49" stopIfTrue="1">
-      <formula>ISTEXT($J2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="149" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K65536">
+    <cfRule type="expression" dxfId="121" priority="36" stopIfTrue="1">
+      <formula>ISTEXT($K2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="45" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="148" priority="42" stopIfTrue="1">
-      <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="147" priority="16" stopIfTrue="1">
-      <formula>ISTEXT($I2)</formula>
+    <cfRule type="cellIs" dxfId="119" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="59" stopIfTrue="1" operator="greaterThan">
+      <formula>202.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="146" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="33" stopIfTrue="1">
       <formula>ISTEXT($L2)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:AA65536 E2:F65536">
-    <cfRule type="expression" dxfId="145" priority="6" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P65536">
-    <cfRule type="cellIs" dxfId="144" priority="26" stopIfTrue="1" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T65536">
-    <cfRule type="cellIs" dxfId="143" priority="25" stopIfTrue="1" operator="notEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X65536">
-    <cfRule type="cellIs" dxfId="142" priority="24" stopIfTrue="1" operator="notEqual">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="141" priority="22" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D65536">
-    <cfRule type="expression" dxfId="139" priority="19" stopIfTrue="1">
-      <formula>ISNUMBER($D2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="20" stopIfTrue="1">
-      <formula>LEN($D2)&lt;&gt;2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="21" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="136" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="18" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="134" priority="1" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="14" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="39" stopIfTrue="1" operator="greaterThan">
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="129" priority="9" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="11" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="115" priority="67" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:O65536">
-    <cfRule type="cellIs" dxfId="126" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O65536">
-    <cfRule type="cellIs" dxfId="125" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O65536">
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O65536">
-    <cfRule type="cellIs" dxfId="124" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M2:AA65536 E2:F65536">
+    <cfRule type="expression" dxfId="110" priority="6" stopIfTrue="1">
+      <formula>ISTEXT(E2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P65536">
+    <cfRule type="cellIs" dxfId="109" priority="26" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R2:R65536">
-    <cfRule type="expression" dxfId="123" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
       <formula>LEN(RIGHT($R2,LEN($R2)-FIND(".",$Q2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T65536">
+    <cfRule type="cellIs" dxfId="107" priority="25" stopIfTrue="1" operator="notEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V65536">
+    <cfRule type="expression" dxfId="106" priority="2" stopIfTrue="1">
+      <formula>LEN(RIGHT($V2,LEN($V2)-FIND(".",$V2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X65536">
+    <cfRule type="cellIs" dxfId="105" priority="24" stopIfTrue="1" operator="notEqual">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="expression" dxfId="122" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="3" stopIfTrue="1">
       <formula>LEN(RIGHT($Z2,LEN($Z2)-FIND(".",$Z2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="expression" dxfId="121" priority="2" stopIfTrue="1">
-      <formula>LEN(RIGHT($V2,LEN($V2)-FIND(".",$V2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5224,42 +4726,41 @@
       <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" style="1" customWidth="1"/>
-    <col min="20" max="23" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="1" customWidth="1"/>
+    <col min="20" max="23" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.44140625" style="1" customWidth="1"/>
-    <col min="33" max="34" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.33203125" style="1" customWidth="1"/>
-    <col min="37" max="38" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.28515625" style="1" customWidth="1"/>
+    <col min="37" max="38" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="5" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.33203125" style="1"/>
+    <col min="40" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5272,10 +4773,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -5290,55 +4791,55 @@
       <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="8" t="s">
         <v>59</v>
       </c>
       <c r="AB1" s="5" t="s">
@@ -5378,197 +4879,113 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="AB2" s="10">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AB2" s="1">
         <v>1</v>
       </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10">
+      <c r="AF2" s="1">
         <v>2</v>
       </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
+      <c r="AJ2" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="120" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="40" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="119" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="39" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="118" priority="37" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="37" stopIfTrue="1" operator="greaterThan">
       <formula>2027</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D65536">
-    <cfRule type="expression" dxfId="116" priority="34" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="99" priority="36" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="35" stopIfTrue="1">
+      <formula>LEN($D2)&lt;&gt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="34" stopIfTrue="1">
       <formula>ISNUMBER($D2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="35" stopIfTrue="1">
-      <formula>LEN($D2)&lt;&gt;2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="36" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" dxfId="113" priority="32" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="expression" dxfId="95" priority="31" stopIfTrue="1">
+      <formula>ISTEXT($N2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="31" stopIfTrue="1">
-      <formula>ISTEXT($N2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" dxfId="110" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="109" priority="25" stopIfTrue="1">
-      <formula>ISTEXT(H2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="108" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="107" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="106" priority="26" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="105" priority="20" stopIfTrue="1">
-      <formula>ISTEXT(I2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" dxfId="104" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" dxfId="103" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" dxfId="102" priority="21" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="101" priority="15" stopIfTrue="1">
-      <formula>ISTEXT(J2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="cellIs" dxfId="100" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="cellIs" dxfId="99" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
+  <conditionalFormatting sqref="G2:J65536">
     <cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="cellIs" dxfId="98" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:J65536">
+    <cfRule type="expression" dxfId="92" priority="15" stopIfTrue="1">
+      <formula>ISTEXT(H2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
+      <formula>-9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB65536">
+    <cfRule type="cellIs" dxfId="88" priority="9" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AM65536">
-    <cfRule type="expression" dxfId="97" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="6" stopIfTrue="1">
       <formula>ISTEXT(AB2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="cellIs" dxfId="96" priority="9" stopIfTrue="1" operator="notEqual">
-      <formula>1</formula>
+  <conditionalFormatting sqref="AD2:AD65536">
+    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
+      <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="cellIs" dxfId="95" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="85" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH65536">
+    <cfRule type="expression" dxfId="84" priority="3" stopIfTrue="1">
+      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AJ65536">
-    <cfRule type="cellIs" dxfId="94" priority="7" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="7" stopIfTrue="1" operator="notEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="expression" dxfId="93" priority="5" stopIfTrue="1">
-      <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AL65536">
-    <cfRule type="expression" dxfId="92" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="4" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH65536">
-    <cfRule type="expression" dxfId="91" priority="3" stopIfTrue="1">
-      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="cellIs" dxfId="90" priority="1" stopIfTrue="1" operator="equal">
-      <formula>-9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5587,35 +5004,35 @@
       <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.44140625" style="1" customWidth="1"/>
-    <col min="27" max="28" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.33203125" style="1" customWidth="1"/>
-    <col min="31" max="32" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.28515625" style="1" customWidth="1"/>
+    <col min="31" max="32" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.33203125" style="1"/>
+    <col min="34" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5628,10 +5045,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -5716,7 +5133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -5807,7 +5224,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -5898,7 +5315,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -5989,7 +5406,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -6080,7 +5497,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -6171,7 +5588,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -6262,7 +5679,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -6353,7 +5770,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -6444,7 +5861,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -6535,7 +5952,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -6626,7 +6043,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -6717,7 +6134,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -6808,7 +6225,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -6899,7 +6316,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -6990,7 +6407,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -7081,7 +6498,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -7172,7 +6589,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -7263,7 +6680,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -7354,7 +6771,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -7445,7 +6862,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -7536,7 +6953,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -7627,7 +7044,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -7718,7 +7135,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -7809,7 +7226,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -7901,253 +7318,214 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N65536">
-    <cfRule type="cellIs" dxfId="89" priority="67" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
+  <conditionalFormatting sqref="A2:A65536">
+    <cfRule type="cellIs" dxfId="81" priority="48" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C65536">
+    <cfRule type="cellIs" dxfId="80" priority="22" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="42" stopIfTrue="1">
+      <formula>ISTEXT($C2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D65536">
+    <cfRule type="cellIs" dxfId="77" priority="21" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="19" stopIfTrue="1">
+      <formula>ISNUMBER($D2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="20" stopIfTrue="1">
+      <formula>LEN($D2)&lt;&gt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="expression" dxfId="87" priority="41" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="74" priority="66" stopIfTrue="1" operator="greaterThan">
+      <formula>590</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="63" stopIfTrue="1" operator="greaterThan">
+      <formula>1345</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="47" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="41" stopIfTrue="1">
       <formula>ISTEXT($G2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="47" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H65536">
+    <cfRule type="cellIs" dxfId="68" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="50" stopIfTrue="1" operator="greaterThan">
+      <formula>150</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="18" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="63" stopIfTrue="1" operator="greaterThan">
-      <formula>1345</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="expression" dxfId="65" priority="40" stopIfTrue="1">
+      <formula>ISTEXT($H2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I65536">
+    <cfRule type="cellIs" dxfId="64" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="66" stopIfTrue="1" operator="greaterThan">
-      <formula>590</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="cellIs" dxfId="81" priority="61" stopIfTrue="1" operator="greaterThan">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="79" priority="36" stopIfTrue="1">
-      <formula>ISTEXT($K2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="45" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="59" stopIfTrue="1" operator="greaterThan">
-      <formula>202.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M65536">
-    <cfRule type="expression" dxfId="74" priority="34" stopIfTrue="1">
-      <formula>ISTEXT($M2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="44" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="56" stopIfTrue="1" operator="greaterThan">
-      <formula>300</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>1.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="expression" dxfId="69" priority="35" stopIfTrue="1">
-      <formula>ISTEXT($L2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="43" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="53" stopIfTrue="1" operator="greaterThan">
-      <formula>117</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="64" priority="40" stopIfTrue="1">
-      <formula>ISTEXT($H2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="50" stopIfTrue="1" operator="greaterThan">
-      <formula>150</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I65536">
+    <cfRule type="cellIs" dxfId="63" priority="39" stopIfTrue="1" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="16" stopIfTrue="1">
+      <formula>ISTEXT($I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J65536">
+    <cfRule type="expression" dxfId="61" priority="1" stopIfTrue="1">
+      <formula>$I2&amp;$J2=""</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J65536">
+    <cfRule type="cellIs" dxfId="58" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="49" stopIfTrue="1">
       <formula>ISTEXT($J2)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="58" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K65536">
+    <cfRule type="expression" dxfId="55" priority="36" stopIfTrue="1">
+      <formula>ISTEXT($K2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="59" stopIfTrue="1" operator="greaterThan">
+      <formula>202.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:M65536">
+    <cfRule type="cellIs" dxfId="52" priority="43" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="57" priority="32" stopIfTrue="1">
-      <formula>ISTEXT(O2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="46" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="55" priority="42" stopIfTrue="1">
-      <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="16" stopIfTrue="1">
-      <formula>ISTEXT($I2)</formula>
+    <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L65536">
+    <cfRule type="expression" dxfId="50" priority="35" stopIfTrue="1">
+      <formula>ISTEXT($L2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="53" stopIfTrue="1" operator="greaterThan">
+      <formula>117</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M65536">
+    <cfRule type="expression" dxfId="47" priority="34" stopIfTrue="1">
+      <formula>ISTEXT($M2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="56" stopIfTrue="1" operator="greaterThan">
+      <formula>300</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>1.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N65536 S2:U65536">
+    <cfRule type="cellIs" dxfId="44" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536">
+    <cfRule type="expression" dxfId="43" priority="33" stopIfTrue="1">
+      <formula>ISTEXT($N2)</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="33" stopIfTrue="1">
-      <formula>ISTEXT($N2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:AG65536 E2:F65536">
-    <cfRule type="expression" dxfId="52" priority="6" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
+    <cfRule type="cellIs" dxfId="42" priority="67" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65534">
-    <cfRule type="expression" dxfId="51" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="27" stopIfTrue="1">
       <formula>SUM($O2:$R2)&lt;97</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="28" stopIfTrue="1">
       <formula>SUM($O2:$R2)&gt;103</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="cellIs" dxfId="49" priority="26" stopIfTrue="1" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="notEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="cellIs" dxfId="47" priority="24" stopIfTrue="1" operator="notEqual">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="46" priority="22" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D65536">
-    <cfRule type="expression" dxfId="44" priority="19" stopIfTrue="1">
-      <formula>ISNUMBER($D2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="20" stopIfTrue="1">
-      <formula>LEN($D2)&lt;&gt;2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="21" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="O2:R65536">
+    <cfRule type="cellIs" dxfId="38" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="61" stopIfTrue="1" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="46" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="41" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="18" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="39" priority="1" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="14" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="39" stopIfTrue="1" operator="greaterThan">
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="11" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N65536 S2:U65536">
-    <cfRule type="cellIs" dxfId="31" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="30" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
+    <cfRule type="expression" dxfId="35" priority="32" stopIfTrue="1">
+      <formula>ISTEXT(O2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O65535:R65536">
+    <cfRule type="expression" dxfId="34" priority="180" stopIfTrue="1">
+      <formula>SUM($O65535:$R65536)&lt;97</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="181" stopIfTrue="1">
+      <formula>SUM($O65535:$R65536)&gt;103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="29" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:AG65536 E2:F65536">
+    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+      <formula>ISTEXT(E2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V65536">
+    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X65536">
@@ -8155,9 +7533,9 @@
       <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
-      <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
+  <conditionalFormatting sqref="Z2:Z65536">
+    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="notEqual">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB65536">
@@ -8165,12 +7543,14 @@
       <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O65535:R65536">
-    <cfRule type="expression" dxfId="25" priority="180" stopIfTrue="1">
-      <formula>SUM($O65535:$R65536)&lt;97</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="181" stopIfTrue="1">
-      <formula>SUM($O65535:$R65536)&gt;103</formula>
+  <conditionalFormatting sqref="AD2:AD65536">
+    <cfRule type="cellIs" dxfId="25" priority="24" stopIfTrue="1" operator="notEqual">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF2:AF65536">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
+      <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.47244094488188981" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8186,9 +7566,9 @@
       <selection activeCell="AM11" sqref="AM11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
@@ -8200,18 +7580,18 @@
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="6" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="6" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8224,10 +7604,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -8312,7 +7692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -8398,7 +7778,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -8484,7 +7864,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -8570,7 +7950,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -8656,7 +8036,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -8742,7 +8122,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -8828,7 +8208,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -8914,7 +8294,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -9000,7 +8380,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -9086,7 +8466,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -9172,7 +8552,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -9258,7 +8638,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -9344,7 +8724,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -9430,7 +8810,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -9516,7 +8896,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -9602,7 +8982,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -9688,7 +9068,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -9774,7 +9154,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -9860,7 +9240,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -9946,7 +9326,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -10032,7 +9412,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -10118,7 +9498,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -10204,7 +9584,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -10290,7 +9670,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -10378,16 +9758,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="expression" dxfId="23" priority="3" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10403,10 +9781,10 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6" bestFit="1" customWidth="1"/>
@@ -10416,18 +9794,18 @@
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="167.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10440,10 +9818,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -10510,7 +9888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -10581,7 +9959,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -10652,7 +10030,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -10723,7 +10101,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -10794,7 +10172,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -10865,7 +10243,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -10936,7 +10314,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -11007,7 +10385,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -11078,7 +10456,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -11149,7 +10527,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -11220,7 +10598,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -11291,7 +10669,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -11362,7 +10740,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>83</v>
       </c>
@@ -11433,7 +10811,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -11504,7 +10882,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -11575,7 +10953,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -11646,7 +11024,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -11717,7 +11095,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -11788,7 +11166,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -11859,7 +11237,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -11930,7 +11308,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -12001,7 +11379,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -12072,7 +11450,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>87</v>
       </c>
@@ -12143,7 +11521,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -12228,42 +11606,41 @@
       <selection activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" style="1" customWidth="1"/>
-    <col min="20" max="23" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" style="1" customWidth="1"/>
+    <col min="20" max="23" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.44140625" style="1" customWidth="1"/>
-    <col min="33" max="34" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.42578125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.33203125" style="1" customWidth="1"/>
-    <col min="37" max="38" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.28515625" style="1" customWidth="1"/>
+    <col min="37" max="38" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="5" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.33203125" style="1"/>
+    <col min="40" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12276,10 +11653,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -12294,55 +11671,55 @@
       <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="8" t="s">
         <v>59</v>
       </c>
       <c r="AB1" s="5" t="s">
@@ -12382,28 +11759,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1">
         <v>2018</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="1">
         <v>94200</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="1">
         <v>91000</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="1">
         <v>101.4</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
       <c r="K2" s="1">
         <v>3</v>
       </c>
@@ -12455,44 +11829,44 @@
       <c r="AA2" s="1">
         <v>50</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="1">
         <v>1</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="1">
         <v>6.2309999999999999</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="1">
         <v>21</v>
       </c>
-      <c r="AE2" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="AF2" s="10">
+      <c r="AE2" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="AF2" s="1">
         <v>2</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AG2" s="1">
         <v>6.5620000000000003</v>
       </c>
-      <c r="AH2" s="10">
+      <c r="AH2" s="1">
         <v>27</v>
       </c>
-      <c r="AI2" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="AJ2" s="10">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="10">
+      <c r="AI2" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="1">
         <v>6.4459999999999997</v>
       </c>
-      <c r="AL2" s="10">
+      <c r="AL2" s="1">
         <v>27</v>
       </c>
-      <c r="AM2" s="10">
+      <c r="AM2" s="1">
         <v>1.62</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -12502,10 +11876,10 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="1">
         <v>94200</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="1">
         <v>91000</v>
       </c>
       <c r="G3" s="1">
@@ -12599,28 +11973,25 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <v>2019</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="1">
         <v>94200</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="1">
         <v>91000</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="1">
         <v>101.4</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
       <c r="K4" s="1">
         <v>3</v>
       </c>
@@ -12672,44 +12043,44 @@
       <c r="AA4" s="1">
         <v>50</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="1">
         <v>1</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="1">
         <v>6.5119999999999996</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="1">
         <v>24</v>
       </c>
-      <c r="AE4" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="AF4" s="10">
+      <c r="AE4" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="AF4" s="1">
         <v>2</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="1">
         <v>6.6630000000000003</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="1">
         <v>27</v>
       </c>
-      <c r="AI4" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="AJ4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="10">
+      <c r="AI4" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="1">
         <v>6.3479999999999999</v>
       </c>
-      <c r="AL4" s="10">
+      <c r="AL4" s="1">
         <v>27</v>
       </c>
-      <c r="AM4" s="10">
+      <c r="AM4" s="1">
         <v>1.62</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -12719,10 +12090,10 @@
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="1">
         <v>94200</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="1">
         <v>91000</v>
       </c>
       <c r="G5" s="1">
@@ -12823,16 +12194,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="19" priority="34" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="19" priority="32" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="34" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="18" priority="32" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D65536">
@@ -12847,22 +12216,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" dxfId="13" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="expression" dxfId="13" priority="26" stopIfTrue="1">
+      <formula>ISTEXT($N2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G2:J65536">
+    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="26" stopIfTrue="1">
-      <formula>ISTEXT($N2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J65536">
     <cfRule type="cellIs" dxfId="10" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -12873,53 +12240,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J65536">
-    <cfRule type="cellIs" dxfId="8" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="21" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:J65536">
-    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:J65536">
-    <cfRule type="cellIs" dxfId="7" priority="21" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>-9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD65536">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH65536">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AJ65536">
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AL65536">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH65536">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <formula>-9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdat/input-file-template.xlsx
+++ b/inst/extdat/input-file-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim.Foster\Documents\r-projects\rict\inst\extdat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE8EE3-8645-42E9-B0B5-6EB2CB92EEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6F8216-DF8C-49A4-B3CD-44E490DEEF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -40,8 +40,152 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Foster, Tim</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E7C14446-8C03-43B7-9D80-C45FBE924E3C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D6A62A15-037E-4BDE-9C35-E8446E3419AE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Foster, Tim</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F2D04F44-76D5-4A92-99D4-CE5260D6B0E8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D33BB43F-A723-4398-850B-1E98B4E8D8B2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Foster, Tim</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2FFC52FA-F399-4321-B5E4-98BCF83D42EB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{919BABFF-AAAC-4B7E-8755-09A41E99C9C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Foster, Tim</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{29B83F55-772A-4847-9B00-7C2414BCCA0A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{8E2C6CE8-068E-4489-BAB6-DC7D271DCBD1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="86">
   <si>
     <t>SITE</t>
   </si>
@@ -229,12 +373,6 @@
     <t>TST-GB-01-D</t>
   </si>
   <si>
-    <t>Easting (5-fig unless leading zeroes)</t>
-  </si>
-  <si>
-    <t>Northing (5-fig unless leading zeroes)</t>
-  </si>
-  <si>
     <t>MYR-GB-01-R</t>
   </si>
   <si>
@@ -311,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +470,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -764,6 +908,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -820,13 +971,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -855,13 +999,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -897,6 +1034,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -904,34 +1048,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -967,14 +1083,42 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1089,13 +1233,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1124,6 +1261,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1132,13 +1283,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1323,6 +1467,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1351,13 +1502,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1372,6 +1516,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1379,34 +1551,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1435,6 +1579,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1505,13 +1656,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1569,13 +1713,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1599,6 +1736,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1606,13 +1750,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1655,6 +1792,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1662,13 +1806,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1683,6 +1820,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1718,13 +1862,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1739,6 +1876,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1746,13 +1904,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1767,20 +1918,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1788,6 +1925,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1837,27 +1995,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1928,6 +2065,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1985,13 +2129,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2015,6 +2152,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2022,13 +2166,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2071,6 +2208,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2078,13 +2222,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2099,6 +2236,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2134,13 +2278,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2155,6 +2292,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2162,13 +2320,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2183,20 +2334,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2204,6 +2341,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2253,27 +2411,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2282,6 +2419,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2317,8 +2461,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>51</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>36199</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2333,8 +2477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="167641" y="132715"/>
-          <a:ext cx="6414134" cy="11295381"/>
+          <a:off x="205741" y="170815"/>
+          <a:ext cx="6499910" cy="10459085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2577,7 +2721,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>3. Example test data and version history</a:t>
+            <a:t>3. Example test data</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2603,16 +2747,28 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Model 44 GB, Version history</a:t>
+            <a:t>Model 44 GB</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0" u="none" baseline="0">
+          <a:endParaRPr lang="en-GB" sz="1200" b="1" u="none" baseline="0">
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
@@ -3305,6 +3461,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3594,7 +3754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -3607,14 +3767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3645,7 +3805,7 @@
     <col min="34" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="7" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3659,10 +3819,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -3773,14 +3933,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="264" priority="43" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
+    <cfRule type="expression" dxfId="264" priority="73" stopIfTrue="1">
+      <formula>ISTEXT($C2)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="263" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>1990</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="73" stopIfTrue="1">
-      <formula>ISTEXT($C2)</formula>
+    <cfRule type="cellIs" dxfId="262" priority="43" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
@@ -3810,37 +3970,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" dxfId="255" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="98" stopIfTrue="1" operator="greaterThan">
+      <formula>1345</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="78" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="72" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="251" priority="101" stopIfTrue="1" operator="greaterThan">
+      <formula>590</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="250" priority="72" stopIfTrue="1">
       <formula>ISTEXT($G2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="101" stopIfTrue="1" operator="greaterThan">
-      <formula>590</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="99" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="98" stopIfTrue="1" operator="greaterThan">
-      <formula>1345</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="249" priority="71" stopIfTrue="1">
-      <formula>ISTEXT($H2)</formula>
+    <cfRule type="cellIs" dxfId="249" priority="83" stopIfTrue="1" operator="greaterThan">
+      <formula>150</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="248" priority="84" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="expression" dxfId="247" priority="71" stopIfTrue="1">
+      <formula>ISTEXT($H2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="37" stopIfTrue="1" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="83" stopIfTrue="1" operator="greaterThan">
-      <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I65536">
@@ -3849,25 +4009,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" dxfId="244" priority="70" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="expression" dxfId="244" priority="35" stopIfTrue="1">
+      <formula>ISTEXT($I2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="70" stopIfTrue="1" operator="greaterThan">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="35" stopIfTrue="1">
-      <formula>ISTEXT($I2)</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J65536">
-    <cfRule type="expression" dxfId="242" priority="9" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
+    <cfRule type="cellIs" dxfId="242" priority="30" stopIfTrue="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="241" priority="60" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="30" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
+    <cfRule type="expression" dxfId="240" priority="9" stopIfTrue="1">
+      <formula>$I2&amp;$J2=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J65536">
@@ -3882,11 +4042,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="cellIs" dxfId="236" priority="94" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="expression" dxfId="236" priority="67" stopIfTrue="1">
+      <formula>ISTEXT($K2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="94" stopIfTrue="1" operator="greaterThan">
       <formula>202.8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="235" priority="67" stopIfTrue="1">
-      <formula>ISTEXT($K2)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="234" priority="95" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
@@ -3901,25 +4061,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="cellIs" dxfId="231" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0.4</formula>
+    <cfRule type="expression" dxfId="231" priority="66" stopIfTrue="1">
+      <formula>ISTEXT($L2)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="230" priority="88" stopIfTrue="1" operator="greaterThan">
       <formula>117</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="66" stopIfTrue="1">
-      <formula>ISTEXT($L2)</formula>
+    <cfRule type="cellIs" dxfId="229" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M65536">
-    <cfRule type="cellIs" dxfId="228" priority="92" stopIfTrue="1" operator="lessThan">
+    <cfRule type="expression" dxfId="228" priority="65" stopIfTrue="1">
+      <formula>ISTEXT($M2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="91" stopIfTrue="1" operator="greaterThan">
+      <formula>300</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="92" stopIfTrue="1" operator="lessThan">
       <formula>1.7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="227" priority="65" stopIfTrue="1">
-      <formula>ISTEXT($M2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="91" stopIfTrue="1" operator="greaterThan">
-      <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536 S2:U65536">
@@ -3928,14 +4088,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536">
-    <cfRule type="cellIs" dxfId="224" priority="103" stopIfTrue="1" operator="lessThan">
+    <cfRule type="expression" dxfId="224" priority="64" stopIfTrue="1">
+      <formula>ISTEXT($N2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="103" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="223" priority="64" stopIfTrue="1">
-      <formula>ISTEXT($N2)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="222" priority="102" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
@@ -3948,28 +4108,28 @@
     <cfRule type="expression" dxfId="220" priority="59" stopIfTrue="1">
       <formula>SUM($O2:$R2)&gt;103</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="expression" dxfId="219" priority="58" stopIfTrue="1">
+      <formula>SUM($O2:$R2)&lt;97</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="77" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="58" stopIfTrue="1">
-      <formula>SUM($O2:$R2)&lt;97</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="96" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="216" priority="96" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
+    <cfRule type="cellIs" dxfId="215" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="16" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="16" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:AG65536">
@@ -4009,15 +4169,16 @@
   </conditionalFormatting>
   <pageMargins left="0.47244094488188981" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,10 +4222,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -4169,14 +4330,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="205" priority="26" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
+    <cfRule type="expression" dxfId="205" priority="46" stopIfTrue="1">
+      <formula>ISTEXT($C2)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="204" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>1990</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="46" stopIfTrue="1">
-      <formula>ISTEXT($C2)</formula>
+    <cfRule type="cellIs" dxfId="203" priority="26" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
@@ -4206,37 +4367,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" dxfId="196" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="67" stopIfTrue="1" operator="greaterThan">
+      <formula>850</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="51" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="45" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="192" priority="70" stopIfTrue="1" operator="greaterThan">
+      <formula>180</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="45" stopIfTrue="1">
       <formula>ISTEXT($G2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="70" stopIfTrue="1" operator="greaterThan">
-      <formula>180</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="67" stopIfTrue="1" operator="greaterThan">
-      <formula>850</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="190" priority="44" stopIfTrue="1">
-      <formula>ISTEXT($H2)</formula>
+    <cfRule type="cellIs" dxfId="190" priority="54" stopIfTrue="1" operator="greaterThan">
+      <formula>50</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="189" priority="55" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="expression" dxfId="188" priority="44" stopIfTrue="1">
+      <formula>ISTEXT($H2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="22" stopIfTrue="1" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="54" stopIfTrue="1" operator="greaterThan">
-      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I65536">
@@ -4245,25 +4406,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" dxfId="185" priority="43" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="expression" dxfId="185" priority="20" stopIfTrue="1">
+      <formula>ISTEXT($I2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="43" stopIfTrue="1" operator="greaterThan">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="20" stopIfTrue="1">
-      <formula>ISTEXT($I2)</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J65536">
-    <cfRule type="expression" dxfId="183" priority="5" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
+    <cfRule type="cellIs" dxfId="183" priority="15" stopIfTrue="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="182" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="15" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
+    <cfRule type="expression" dxfId="181" priority="5" stopIfTrue="1">
+      <formula>$I2&amp;$J2=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J65536">
@@ -4278,11 +4439,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="cellIs" dxfId="177" priority="63" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="expression" dxfId="177" priority="40" stopIfTrue="1">
+      <formula>ISTEXT($K2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="63" stopIfTrue="1" operator="greaterThan">
       <formula>75</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="176" priority="40" stopIfTrue="1">
-      <formula>ISTEXT($K2)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="175" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>2.2</formula>
@@ -4297,25 +4458,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="cellIs" dxfId="172" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>2</formula>
+    <cfRule type="expression" dxfId="172" priority="39" stopIfTrue="1">
+      <formula>ISTEXT($L2)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="171" priority="57" stopIfTrue="1" operator="greaterThan">
       <formula>37.2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="39" stopIfTrue="1">
-      <formula>ISTEXT($L2)</formula>
+    <cfRule type="cellIs" dxfId="170" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M65536">
-    <cfRule type="cellIs" dxfId="169" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="expression" dxfId="169" priority="38" stopIfTrue="1">
+      <formula>ISTEXT($M2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="60" stopIfTrue="1" operator="greaterThan">
+      <formula>183</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>15</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="38" stopIfTrue="1">
-      <formula>ISTEXT($M2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="60" stopIfTrue="1" operator="greaterThan">
-      <formula>183</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536 S2:U65536">
@@ -4324,14 +4485,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536">
-    <cfRule type="cellIs" dxfId="165" priority="72" stopIfTrue="1" operator="lessThan">
+    <cfRule type="expression" dxfId="165" priority="37" stopIfTrue="1">
+      <formula>ISTEXT($N2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="72" stopIfTrue="1" operator="lessThan">
       <formula>0.7</formula>
     </cfRule>
     <cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="37" stopIfTrue="1">
-      <formula>ISTEXT($N2)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="163" priority="71" stopIfTrue="1" operator="greaterThan">
       <formula>130</formula>
@@ -4344,28 +4505,28 @@
     <cfRule type="expression" dxfId="161" priority="32" stopIfTrue="1">
       <formula>SUM($O2:$R2)&gt;103</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="expression" dxfId="160" priority="31" stopIfTrue="1">
+      <formula>SUM($O2:$R2)&lt;97</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="50" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="31" stopIfTrue="1">
-      <formula>SUM($O2:$R2)&lt;97</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="65" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="65" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
+    <cfRule type="cellIs" dxfId="156" priority="35" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="11" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="35" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:AG65536">
@@ -4404,15 +4565,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4454,10 +4616,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -4541,14 +4703,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="146" priority="42" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="146" priority="22" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="42" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="22" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D65536">
@@ -4563,23 +4725,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" dxfId="140" priority="65" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="140" priority="66" stopIfTrue="1" operator="greaterThan">
+      <formula>113</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="63" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="63" stopIfTrue="1" operator="greaterThan">
       <formula>621</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="47" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="136" priority="41" stopIfTrue="1">
       <formula>ISTEXT($G2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="66" stopIfTrue="1" operator="greaterThan">
-      <formula>113</formula>
+    <cfRule type="cellIs" dxfId="135" priority="47" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
@@ -4602,36 +4764,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="129" priority="16" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="129" priority="39" stopIfTrue="1" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="16" stopIfTrue="1">
       <formula>ISTEXT($I2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="39" stopIfTrue="1" operator="greaterThan">
-      <formula>9</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J65536">
-    <cfRule type="expression" dxfId="127" priority="1" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
+    <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>10</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="126" priority="29" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="11" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
+    <cfRule type="expression" dxfId="125" priority="1" stopIfTrue="1">
+      <formula>$I2&amp;$J2=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="124" priority="49" stopIfTrue="1">
-      <formula>ISTEXT($J2)</formula>
+    <cfRule type="cellIs" dxfId="124" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="123" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="expression" dxfId="122" priority="49" stopIfTrue="1">
+      <formula>ISTEXT($J2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65536">
@@ -4663,19 +4825,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:O65536">
+    <cfRule type="cellIs" dxfId="113" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O65536">
-    <cfRule type="cellIs" dxfId="112" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="112" priority="7" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="7" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:AA65536 E2:F65536">
@@ -4715,15 +4877,16 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4897,33 +5060,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="102" priority="39" stopIfTrue="1">
-      <formula>ISTEXT($C2)</formula>
+    <cfRule type="cellIs" dxfId="102" priority="37" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="101" priority="38" stopIfTrue="1" operator="lessThan">
       <formula>1990</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="37" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
+    <cfRule type="expression" dxfId="100" priority="39" stopIfTrue="1">
+      <formula>ISTEXT($C2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D65536">
-    <cfRule type="cellIs" dxfId="99" priority="36" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
+    <cfRule type="expression" dxfId="99" priority="34" stopIfTrue="1">
+      <formula>ISNUMBER($D2)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="98" priority="35" stopIfTrue="1">
       <formula>LEN($D2)&lt;&gt;2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="34" stopIfTrue="1">
-      <formula>ISNUMBER($D2)</formula>
+    <cfRule type="cellIs" dxfId="97" priority="36" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" dxfId="96" priority="32" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="expression" dxfId="96" priority="31" stopIfTrue="1">
+      <formula>ISTEXT($N2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="31" stopIfTrue="1">
-      <formula>ISTEXT($N2)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="94" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
@@ -4990,6 +5153,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5135,7 +5299,7 @@
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2"/>
       <c r="C2">
@@ -5226,7 +5390,7 @@
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3"/>
       <c r="C3">
@@ -5317,7 +5481,7 @@
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4"/>
       <c r="C4">
@@ -5408,7 +5572,7 @@
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5"/>
       <c r="C5">
@@ -5499,7 +5663,7 @@
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6"/>
       <c r="C6">
@@ -5590,7 +5754,7 @@
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7"/>
       <c r="C7">
@@ -5681,7 +5845,7 @@
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8"/>
       <c r="C8">
@@ -5772,7 +5936,7 @@
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9"/>
       <c r="C9">
@@ -5863,7 +6027,7 @@
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10"/>
       <c r="C10">
@@ -5954,7 +6118,7 @@
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11"/>
       <c r="C11">
@@ -6045,7 +6209,7 @@
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12"/>
       <c r="C12">
@@ -6136,7 +6300,7 @@
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13"/>
       <c r="C13">
@@ -6227,7 +6391,7 @@
     </row>
     <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14"/>
       <c r="C14">
@@ -6318,7 +6482,7 @@
     </row>
     <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15"/>
       <c r="C15">
@@ -6409,7 +6573,7 @@
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16"/>
       <c r="C16">
@@ -6500,7 +6664,7 @@
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17"/>
       <c r="C17">
@@ -6591,7 +6755,7 @@
     </row>
     <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18"/>
       <c r="C18">
@@ -6682,7 +6846,7 @@
     </row>
     <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19"/>
       <c r="C19">
@@ -6773,7 +6937,7 @@
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20"/>
       <c r="C20">
@@ -6864,7 +7028,7 @@
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21"/>
       <c r="C21">
@@ -6955,7 +7119,7 @@
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22"/>
       <c r="C22">
@@ -7046,7 +7210,7 @@
     </row>
     <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23"/>
       <c r="C23">
@@ -7137,7 +7301,7 @@
     </row>
     <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24"/>
       <c r="C24">
@@ -7228,7 +7392,7 @@
     </row>
     <row r="25" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25"/>
       <c r="C25">
@@ -7327,53 +7491,53 @@
     <cfRule type="cellIs" dxfId="80" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>2027</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="42" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="79" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="42" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D65536">
-    <cfRule type="cellIs" dxfId="77" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="expression" dxfId="77" priority="19" stopIfTrue="1">
+      <formula>ISNUMBER($D2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="20" stopIfTrue="1">
+      <formula>LEN($D2)&lt;&gt;2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="21" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="19" stopIfTrue="1">
-      <formula>ISNUMBER($D2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="20" stopIfTrue="1">
-      <formula>LEN($D2)&lt;&gt;2</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" dxfId="74" priority="66" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="63" stopIfTrue="1" operator="greaterThan">
+      <formula>1345</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="47" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="41" stopIfTrue="1">
+      <formula>ISTEXT($G2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="greaterThan">
       <formula>590</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="63" stopIfTrue="1" operator="greaterThan">
-      <formula>1345</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="47" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="41" stopIfTrue="1">
-      <formula>ISTEXT($G2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H65536">
     <cfRule type="cellIs" dxfId="68" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="50" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="18" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="50" stopIfTrue="1" operator="greaterThan">
       <formula>150</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="18" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="65" priority="40" stopIfTrue="1">
       <formula>ISTEXT($H2)</formula>
@@ -7385,11 +7549,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" dxfId="63" priority="39" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="expression" dxfId="63" priority="16" stopIfTrue="1">
+      <formula>ISTEXT($I2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="39" stopIfTrue="1" operator="greaterThan">
       <formula>9</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="16" stopIfTrue="1">
-      <formula>ISTEXT($I2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J65536">
@@ -7418,30 +7582,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="55" priority="36" stopIfTrue="1">
-      <formula>ISTEXT($K2)</formula>
+    <cfRule type="cellIs" dxfId="55" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="59" stopIfTrue="1" operator="greaterThan">
       <formula>202.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
+    <cfRule type="expression" dxfId="53" priority="36" stopIfTrue="1">
+      <formula>ISTEXT($K2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:M65536">
-    <cfRule type="cellIs" dxfId="52" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="expression" dxfId="50" priority="35" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="35" stopIfTrue="1">
       <formula>ISTEXT($L2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0.4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="48" priority="53" stopIfTrue="1" operator="greaterThan">
       <formula>117</formula>
@@ -7464,11 +7628,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536">
+    <cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="43" priority="33" stopIfTrue="1">
       <formula>ISTEXT($N2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="42" priority="67" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
@@ -7486,14 +7650,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="cellIs" dxfId="38" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="38" priority="46" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="37" priority="61" stopIfTrue="1" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="46" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
+    <cfRule type="cellIs" dxfId="36" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="32" stopIfTrue="1">
       <formula>ISTEXT(O2)</formula>
@@ -7508,14 +7672,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
+    <cfRule type="cellIs" dxfId="32" priority="7" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="31" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="7" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:AG65536 E2:F65536">
@@ -8468,7 +8632,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>2018</v>
@@ -8554,7 +8718,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>2016</v>
@@ -8640,7 +8804,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13">
         <v>2018</v>
@@ -9500,7 +9664,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>2018</v>
@@ -9586,7 +9750,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>2016</v>
@@ -9672,7 +9836,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <v>2018</v>
@@ -9890,16 +10054,16 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>40000</v>
@@ -9961,16 +10125,16 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>2017</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>40000</v>
@@ -10032,16 +10196,16 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>40000</v>
@@ -10103,16 +10267,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>2016</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>39840</v>
@@ -10174,16 +10338,16 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>39840</v>
@@ -10245,16 +10409,16 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>39840</v>
@@ -10316,16 +10480,16 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>25800</v>
@@ -10387,16 +10551,16 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>2016</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>39000</v>
@@ -10458,16 +10622,16 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>39000</v>
@@ -10529,16 +10693,16 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>39000</v>
@@ -10600,16 +10764,16 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>35840</v>
@@ -10671,16 +10835,16 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>2018</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>35840</v>
@@ -10742,16 +10906,16 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>2016</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>40000</v>
@@ -10813,16 +10977,16 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>40000</v>
@@ -10884,16 +11048,16 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>2018</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16">
         <v>40000</v>
@@ -10955,16 +11119,16 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>2016</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17">
         <v>39840</v>
@@ -11026,16 +11190,16 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>2017</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <v>39840</v>
@@ -11097,16 +11261,16 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>2018</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <v>39840</v>
@@ -11168,16 +11332,16 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>2017</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>25800</v>
@@ -11239,16 +11403,16 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>2016</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <v>39000</v>
@@ -11310,16 +11474,16 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>2017</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>39000</v>
@@ -11381,16 +11545,16 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23">
         <v>2018</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <v>39000</v>
@@ -11452,16 +11616,16 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>2016</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E24">
         <v>35840</v>
@@ -11523,16 +11687,16 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25">
         <v>2018</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25">
         <v>35840</v>
@@ -11603,7 +11767,7 @@
   <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inst/extdat/input-file-template.xlsx
+++ b/inst/extdat/input-file-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scottishepa-my.sharepoint.com/personal/tim_foster_sepa_org_uk/Documents/Documents/Projects/rict/inst/extdat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim.Foster\Documents\r-projects\rict\inst\extdat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{4C34F92C-04E4-4F88-96D4-697A7ED4F27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8699DFD5-9C40-4265-B6F2-C05751BEDFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Model 1 Test Data NI" sheetId="21" r:id="rId7"/>
     <sheet name="Model  1 Test Data IoM " sheetId="23" r:id="rId8"/>
     <sheet name="Model 44 Test Data GB" sheetId="15" r:id="rId9"/>
-    <sheet name="VERSION HISTORY" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +40,152 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Foster, Tim</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E7C14446-8C03-43B7-9D80-C45FBE924E3C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D6A62A15-037E-4BDE-9C35-E8446E3419AE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Foster, Tim</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F2D04F44-76D5-4A92-99D4-CE5260D6B0E8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D33BB43F-A723-4398-850B-1E98B4E8D8B2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Foster, Tim</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2FFC52FA-F399-4321-B5E4-98BCF83D42EB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{919BABFF-AAAC-4B7E-8755-09A41E99C9C1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Foster, Tim</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{29B83F55-772A-4847-9B00-7C2414BCCA0A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{8E2C6CE8-068E-4489-BAB6-DC7D271DCBD1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5-fig unless leading zeroes</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="86">
   <si>
     <t>SITE</t>
   </si>
@@ -176,63 +319,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>Note of change</t>
-  </si>
-  <si>
-    <t>Author of change</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Nick Irvine</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.1</t>
-  </si>
-  <si>
-    <t>John Murray-Bligh</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.2</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>Original, re-named for RICT2 website live 30 March 2020</t>
-  </si>
-  <si>
-    <t>Example data for Northern Ireland added as a new worksheet (from NI single year classification experiment). Minor changes to Instructions. New worksheet for version history.</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.3</t>
-  </si>
-  <si>
     <t>OBJECTID</t>
   </si>
   <si>
@@ -281,58 +367,10 @@
     <t>shape_Length</t>
   </si>
   <si>
-    <t>New Input file wValidation wTestData v1.3a</t>
-  </si>
-  <si>
     <t>TST-GB-01-R</t>
   </si>
   <si>
     <t>TST-GB-01-D</t>
-  </si>
-  <si>
-    <t>GB warning limits corrected, GB Model 44 Input template and test data added (1-site)</t>
-  </si>
-  <si>
-    <t>GB warning limits corrected, GB Model 44 Input template and test data added (12-sites, licensed for internal use only)</t>
-  </si>
-  <si>
-    <t>Notes added to Instructions about red warnings for missing biological data and NGR must be upper-case; GB warning and fail test data added</t>
-  </si>
-  <si>
-    <t>Split into 3-worksheets to allow enhanced instructions about site and season code, season code pre-loaded into first line on INPUT FILE worksheet</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.3b (partner use only)</t>
-  </si>
-  <si>
-    <t>Easting (5-fig unless leading zeroes)</t>
-  </si>
-  <si>
-    <t>Northing (5-fig unless leading zeroes)</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.4</t>
-  </si>
-  <si>
-    <t>New Input file wValidation wTestData v1.5</t>
-  </si>
-  <si>
-    <t>1.3a</t>
-  </si>
-  <si>
-    <t>1.3b (partner use only)</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>For RICT3 only, NI test datasets with northings and eastings converted from fully numeric to normal eastings and northings, following format of GB data</t>
-  </si>
-  <si>
-    <t>Interim version, not released, with additional worksheets with Functional Tests and Warning Limit tests</t>
   </si>
   <si>
     <t>MYR-GB-01-R</t>
@@ -410,8 +448,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,23 +472,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -506,9 +531,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -523,64 +548,14 @@
       <alignment textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="305">
+  <dxfs count="264">
     <dxf>
       <fill>
         <patternFill>
@@ -641,13 +616,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -706,6 +674,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -755,6 +737,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -763,384 +787,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1234,48 +880,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1297,13 +901,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1311,6 +908,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1332,6 +936,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1354,6 +965,244 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1412,6 +1261,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1440,6 +1303,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1448,307 +1353,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1779,6 +1383,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1800,6 +1411,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1807,6 +1439,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1814,6 +1460,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1821,6 +1481,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1835,6 +1516,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1849,6 +1558,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1856,62 +1593,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1919,6 +1600,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -1926,90 +1663,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2017,224 +1670,49 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2251,6 +1729,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2265,6 +1757,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2272,13 +1771,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2286,6 +1778,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2300,6 +1813,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2307,6 +1834,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2314,6 +1855,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2321,6 +1869,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2342,55 +1918,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2398,6 +1925,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2447,48 +1995,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2566,27 +2072,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -2601,119 +2086,49 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2730,7 +2145,280 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2759,8 +2447,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>51</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>36199</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2775,8 +2463,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="167641" y="132715"/>
-          <a:ext cx="6414134" cy="11295381"/>
+          <a:off x="205741" y="170815"/>
+          <a:ext cx="6499910" cy="10659110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3019,7 +2707,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>3. Example test data and version history</a:t>
+            <a:t>3. Example test data</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3045,16 +2733,28 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Model 44 GB, Version history</a:t>
+            <a:t>Model 44 GB</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="1300"/>
             </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1100" b="0" u="none" baseline="0">
+          <a:endParaRPr lang="en-GB" sz="1200" b="1" u="none" baseline="0">
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
@@ -3296,7 +2996,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ave your completed template as a CSV (comma delimited) file. To do that, select File &gt; Save As, then in file type dropdown menu replace  '...Excel .xls' with 'CSV (comma delimited)'. Only the current worksheet will be saved. This CSV file can be uploaded to RICT.  </a:t>
+            <a:t>ave your completed template as a CSV (comma delimited) file. To do that, select File &gt; Save As, then in file type dropdown menu replace  '...Excel .xlsx' with 'CSV (comma delimited)'. Only the current worksheet will be saved. This CSV file can be uploaded to RICT.  </a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" b="0">
             <a:effectLst/>
@@ -3729,27 +3429,6 @@
               <a:spcPts val="1300"/>
             </a:lnSpc>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="1" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Input file version 3.1.4 </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0" algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" b="0" i="1" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>RICT Version 3.1.4</a:t>
-          </a:r>
           <a:br>
             <a:rPr lang="en-GB" sz="1100" baseline="0">
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -3769,9 +3448,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3809,9 +3488,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3844,26 +3523,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3896,26 +3558,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4088,11 +3733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4103,220 +3748,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" style="20"/>
-    <col min="2" max="2" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="15">
-        <v>43861</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15">
-        <v>37350</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="15">
-        <v>37374</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B5" s="23">
-        <v>43970</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="23">
-        <v>43972</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="26">
-        <v>44212</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="26">
-        <v>44212</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="26">
-        <v>44843</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="26">
-        <v>44936</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4325,7 +3765,7 @@
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -4347,7 +3787,7 @@
     <col min="34" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="7" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="7" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4360,11 +3800,11 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>88</v>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -4449,9 +3889,6 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
       <c r="D2" t="s">
         <v>4</v>
       </c>
@@ -4461,332 +3898,259 @@
       <c r="F2">
         <v>91000</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10">
+      <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10">
+      <c r="Z2" s="1">
         <v>2</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N65536">
-    <cfRule type="cellIs" dxfId="304" priority="102" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="103" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
+  <conditionalFormatting sqref="A2:A65536">
+    <cfRule type="cellIs" dxfId="263" priority="79" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C65536">
+    <cfRule type="cellIs" dxfId="262" priority="43" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="261" priority="73" stopIfTrue="1">
+      <formula>ISTEXT($C2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="44" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D65536">
+    <cfRule type="expression" dxfId="259" priority="2" stopIfTrue="1">
+      <formula>ISNUMBER($D2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="258" priority="3" stopIfTrue="1">
+      <formula>LEN($D2)&lt;&gt;2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="4" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F65536">
+    <cfRule type="expression" dxfId="256" priority="1" stopIfTrue="1">
+      <formula>ISTEXT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="expression" dxfId="302" priority="72" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="255" priority="78" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="254" priority="72" stopIfTrue="1">
       <formula>ISTEXT($G2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="98" stopIfTrue="1" operator="greaterThan">
+      <formula>1345</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="99" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="100" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="101" stopIfTrue="1" operator="greaterThan">
+      <formula>590</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H65536">
+    <cfRule type="cellIs" dxfId="249" priority="84" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="83" stopIfTrue="1" operator="greaterThan">
+      <formula>150</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="37" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="98" stopIfTrue="1" operator="greaterThan">
-      <formula>1345</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="expression" dxfId="246" priority="71" stopIfTrue="1">
+      <formula>ISTEXT($H2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I65536">
+    <cfRule type="cellIs" dxfId="245" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="100" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="101" stopIfTrue="1" operator="greaterThan">
-      <formula>590</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="cellIs" dxfId="299" priority="96" stopIfTrue="1" operator="greaterThan">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="97" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="297" priority="67" stopIfTrue="1">
-      <formula>ISTEXT($K2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="76" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="93" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="94" stopIfTrue="1" operator="greaterThan">
-      <formula>202.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="95" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M65536">
-    <cfRule type="expression" dxfId="294" priority="65" stopIfTrue="1">
-      <formula>ISTEXT($M2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="75" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="90" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="91" stopIfTrue="1" operator="greaterThan">
-      <formula>300</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="92" stopIfTrue="1" operator="lessThan">
-      <formula>1.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="expression" dxfId="291" priority="66" stopIfTrue="1">
-      <formula>ISTEXT($L2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="74" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="87" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="88" stopIfTrue="1" operator="greaterThan">
-      <formula>117</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="89" stopIfTrue="1" operator="lessThan">
-      <formula>0.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="288" priority="71" stopIfTrue="1">
-      <formula>ISTEXT($H2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="83" stopIfTrue="1" operator="greaterThan">
-      <formula>150</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="84" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I65536">
+    <cfRule type="expression" dxfId="244" priority="35" stopIfTrue="1">
+      <formula>ISTEXT($I2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="70" stopIfTrue="1" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J65536">
+    <cfRule type="expression" dxfId="242" priority="9" stopIfTrue="1">
+      <formula>$I2&amp;$J2=""</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="27" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="31" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="241" priority="30" stopIfTrue="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J65536">
+    <cfRule type="cellIs" dxfId="239" priority="31" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="239" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="81" stopIfTrue="1">
       <formula>ISTEXT($J2)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="283" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K65536">
+    <cfRule type="expression" dxfId="236" priority="67" stopIfTrue="1">
+      <formula>ISTEXT($K2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="94" stopIfTrue="1" operator="greaterThan">
+      <formula>202.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="95" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:M65536">
+    <cfRule type="cellIs" dxfId="233" priority="87" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="74" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="282" priority="63" stopIfTrue="1">
-      <formula>ISTEXT(O2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="77" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="280" priority="73" stopIfTrue="1">
-      <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" priority="32" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="279" priority="35" stopIfTrue="1">
-      <formula>ISTEXT($I2)</formula>
+  <conditionalFormatting sqref="L2:L65536">
+    <cfRule type="cellIs" dxfId="231" priority="89" stopIfTrue="1" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="88" stopIfTrue="1" operator="greaterThan">
+      <formula>117</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="229" priority="66" stopIfTrue="1">
+      <formula>ISTEXT($L2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M65536">
+    <cfRule type="expression" dxfId="228" priority="65" stopIfTrue="1">
+      <formula>ISTEXT($M2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="91" stopIfTrue="1" operator="greaterThan">
+      <formula>300</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="92" stopIfTrue="1" operator="lessThan">
+      <formula>1.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N65536 S2:U65536">
+    <cfRule type="cellIs" dxfId="225" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536">
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="64" stopIfTrue="1">
       <formula>ISTEXT($N2)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:AG65536 E3:F65536">
-    <cfRule type="expression" dxfId="277" priority="14" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
+    <cfRule type="cellIs" dxfId="223" priority="103" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="102" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="276" priority="58" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="221" priority="77" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="220" priority="63" stopIfTrue="1">
+      <formula>ISTEXT(O2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="97" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="218" priority="59" stopIfTrue="1">
+      <formula>SUM($O2:$R2)&gt;103</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="217" priority="58" stopIfTrue="1">
       <formula>SUM($O2:$R2)&lt;97</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="59" stopIfTrue="1">
-      <formula>SUM($O2:$R2)&gt;103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="cellIs" dxfId="274" priority="56" stopIfTrue="1" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="cellIs" dxfId="273" priority="55" stopIfTrue="1" operator="notEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="cellIs" dxfId="272" priority="54" stopIfTrue="1" operator="notEqual">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="271" priority="43" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="44" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D65536">
-    <cfRule type="expression" dxfId="269" priority="38" stopIfTrue="1">
-      <formula>ISNUMBER($D3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="268" priority="39" stopIfTrue="1">
-      <formula>LEN($D3)&lt;&gt;1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="40" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="266" priority="36" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="37" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="264" priority="9" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="33" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="70" stopIfTrue="1" operator="greaterThan">
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="261" priority="18" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="30" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N65536 S2:U65536">
-    <cfRule type="cellIs" dxfId="258" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="216" priority="96" stopIfTrue="1" operator="greaterThan">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="257" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
+    <cfRule type="cellIs" dxfId="215" priority="16" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="256" priority="16" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
+    <cfRule type="cellIs" dxfId="214" priority="62" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:AG65536">
+    <cfRule type="expression" dxfId="213" priority="14" stopIfTrue="1">
+      <formula>ISTEXT(S2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V65536">
+    <cfRule type="cellIs" dxfId="212" priority="56" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X65536">
-    <cfRule type="expression" dxfId="255" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="12" stopIfTrue="1">
       <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z65536">
+    <cfRule type="cellIs" dxfId="210" priority="55" stopIfTrue="1" operator="notEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB65536">
+    <cfRule type="expression" dxfId="209" priority="10" stopIfTrue="1">
+      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD65536">
+    <cfRule type="cellIs" dxfId="208" priority="54" stopIfTrue="1" operator="notEqual">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="expression" dxfId="254" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="11" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="expression" dxfId="253" priority="10" stopIfTrue="1">
-      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F2">
-    <cfRule type="expression" dxfId="252" priority="1" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="251" priority="2" stopIfTrue="1">
-      <formula>ISNUMBER($D2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="250" priority="3" stopIfTrue="1">
-      <formula>LEN($D2)&lt;&gt;2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="4" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.47244094488188981" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4795,7 +4159,7 @@
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -4816,7 +4180,7 @@
     <col min="33" max="33" width="5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="174" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="163.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4829,11 +4193,11 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>88</v>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -4918,337 +4282,271 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10">
+      <c r="V2" s="1">
         <v>1</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10">
+      <c r="Z2" s="1">
         <v>2</v>
       </c>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
+      <c r="AD2" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N65536">
-    <cfRule type="cellIs" dxfId="236" priority="71" stopIfTrue="1" operator="greaterThan">
-      <formula>130</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="72" stopIfTrue="1" operator="lessThan">
-      <formula>0.7</formula>
+  <conditionalFormatting sqref="A2:A65536">
+    <cfRule type="cellIs" dxfId="206" priority="52" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C65536">
+    <cfRule type="expression" dxfId="205" priority="46" stopIfTrue="1">
+      <formula>ISTEXT($C2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="27" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="26" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="202" priority="3" stopIfTrue="1">
+      <formula>LEN($D2)&lt;&gt;1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="4" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D65536">
+    <cfRule type="expression" dxfId="200" priority="2" stopIfTrue="1">
+      <formula>ISNUMBER($D2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D65536">
+    <cfRule type="expression" dxfId="199" priority="24" stopIfTrue="1">
+      <formula>LEN($D3)&lt;&gt;0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="25" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F65536">
+    <cfRule type="expression" dxfId="197" priority="1" stopIfTrue="1">
+      <formula>ISTEXT(E2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="expression" dxfId="234" priority="45" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="196" priority="69" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="67" stopIfTrue="1" operator="greaterThan">
+      <formula>850</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="51" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="70" stopIfTrue="1" operator="greaterThan">
+      <formula>180</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="45" stopIfTrue="1">
       <formula>ISTEXT($G2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="51" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H65536">
+    <cfRule type="cellIs" dxfId="190" priority="54" stopIfTrue="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="55" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="44" stopIfTrue="1">
+      <formula>ISTEXT($H2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="22" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="67" stopIfTrue="1" operator="greaterThan">
-      <formula>850</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="68" stopIfTrue="1" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I65536">
+    <cfRule type="cellIs" dxfId="186" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="69" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="70" stopIfTrue="1" operator="greaterThan">
-      <formula>180</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="cellIs" dxfId="231" priority="65" stopIfTrue="1" operator="greaterThan">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="66" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="229" priority="40" stopIfTrue="1">
-      <formula>ISTEXT($K2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="49" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="63" stopIfTrue="1" operator="greaterThan">
-      <formula>75</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="64" stopIfTrue="1" operator="lessThan">
-      <formula>2.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M65536">
-    <cfRule type="expression" dxfId="226" priority="38" stopIfTrue="1">
-      <formula>ISTEXT($M2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="48" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="59" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="60" stopIfTrue="1" operator="greaterThan">
-      <formula>183</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="61" stopIfTrue="1" operator="lessThan">
-      <formula>15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="expression" dxfId="223" priority="39" stopIfTrue="1">
-      <formula>ISTEXT($L2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="47" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="56" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="57" stopIfTrue="1" operator="greaterThan">
-      <formula>37.2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="220" priority="44" stopIfTrue="1">
-      <formula>ISTEXT($H2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="54" stopIfTrue="1" operator="greaterThan">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I65536">
+    <cfRule type="expression" dxfId="185" priority="20" stopIfTrue="1">
+      <formula>ISTEXT($I2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="43" stopIfTrue="1" operator="greaterThan">
+      <formula>8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J65536">
+    <cfRule type="cellIs" dxfId="183" priority="15" stopIfTrue="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="5" stopIfTrue="1">
+      <formula>$I2&amp;$J2=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J65536">
+    <cfRule type="cellIs" dxfId="180" priority="42" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="41" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="53" stopIfTrue="1">
       <formula>ISTEXT($J2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="215" priority="52" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K2:K65536">
+    <cfRule type="expression" dxfId="177" priority="40" stopIfTrue="1">
+      <formula>ISTEXT($K2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="63" stopIfTrue="1" operator="greaterThan">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>2.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:M65536">
+    <cfRule type="cellIs" dxfId="174" priority="47" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="214" priority="36" stopIfTrue="1">
-      <formula>ISTEXT(O2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="50" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="212" priority="46" stopIfTrue="1">
-      <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="211" priority="20" stopIfTrue="1">
-      <formula>ISTEXT($I2)</formula>
+    <cfRule type="cellIs" dxfId="173" priority="56" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L65536">
+    <cfRule type="expression" dxfId="172" priority="39" stopIfTrue="1">
+      <formula>ISTEXT($L2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="57" stopIfTrue="1" operator="greaterThan">
+      <formula>37.2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M65536">
+    <cfRule type="expression" dxfId="169" priority="38" stopIfTrue="1">
+      <formula>ISTEXT($M2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="60" stopIfTrue="1" operator="greaterThan">
+      <formula>183</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="61" stopIfTrue="1" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N65536 S2:U65536">
+    <cfRule type="cellIs" dxfId="166" priority="34" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536">
+    <cfRule type="expression" dxfId="165" priority="37" stopIfTrue="1">
+      <formula>ISTEXT($N2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="72" stopIfTrue="1" operator="lessThan">
+      <formula>0.7</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="12" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="37" stopIfTrue="1">
-      <formula>ISTEXT($N2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:AG65536 E3:F65536">
-    <cfRule type="expression" dxfId="209" priority="10" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
+    <cfRule type="cellIs" dxfId="163" priority="71" stopIfTrue="1" operator="greaterThan">
+      <formula>130</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="208" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="36" stopIfTrue="1">
+      <formula>ISTEXT(O2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="32" stopIfTrue="1">
+      <formula>SUM($O2:$R2)&gt;103</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="31" stopIfTrue="1">
       <formula>SUM($O2:$R2)&lt;97</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="32" stopIfTrue="1">
-      <formula>SUM($O2:$R2)&gt;103</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="cellIs" dxfId="206" priority="30" stopIfTrue="1" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="cellIs" dxfId="205" priority="29" stopIfTrue="1" operator="notEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="cellIs" dxfId="204" priority="28" stopIfTrue="1" operator="notEqual">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="203" priority="26" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D65536">
-    <cfRule type="expression" dxfId="201" priority="23" stopIfTrue="1">
-      <formula>ISNUMBER($D3)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="200" priority="24" stopIfTrue="1">
-      <formula>LEN($D3)&lt;&gt;0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="66" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="50" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="198" priority="21" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="22" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="196" priority="5" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="18" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="19" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="43" stopIfTrue="1" operator="greaterThan">
-      <formula>8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="193" priority="13" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="15" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="42" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N65536 S2:U65536">
-    <cfRule type="cellIs" dxfId="190" priority="34" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="157" priority="65" stopIfTrue="1" operator="greaterThan">
+      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="189" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="156" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
+    <cfRule type="cellIs" dxfId="155" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="188" priority="11" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
+  <conditionalFormatting sqref="S2:AG65536">
+    <cfRule type="expression" dxfId="154" priority="10" stopIfTrue="1">
+      <formula>ISTEXT(S2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V65536">
+    <cfRule type="cellIs" dxfId="153" priority="30" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X65536">
-    <cfRule type="expression" dxfId="187" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="8" stopIfTrue="1">
       <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z65536">
+    <cfRule type="cellIs" dxfId="151" priority="29" stopIfTrue="1" operator="notEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB65536">
+    <cfRule type="expression" dxfId="150" priority="6" stopIfTrue="1">
+      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD65536">
+    <cfRule type="cellIs" dxfId="149" priority="28" stopIfTrue="1" operator="notEqual">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="expression" dxfId="186" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="7" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="expression" dxfId="185" priority="6" stopIfTrue="1">
-      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F2">
-    <cfRule type="expression" dxfId="184" priority="1" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="expression" dxfId="183" priority="2" stopIfTrue="1">
-      <formula>ISNUMBER($D2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="3" stopIfTrue="1">
-      <formula>LEN($D2)&lt;&gt;1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="4" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5257,7 +4555,7 @@
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -5276,7 +4574,7 @@
     <col min="27" max="27" width="5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="174" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="163.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5289,11 +4587,11 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>88</v>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -5360,258 +4658,207 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10">
+      <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10">
+      <c r="T2" s="1">
         <v>2</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
+      <c r="X2" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="cellIs" dxfId="168" priority="67" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
+  <conditionalFormatting sqref="A2:A65536">
+    <cfRule type="cellIs" dxfId="147" priority="48" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C65536">
+    <cfRule type="cellIs" dxfId="146" priority="22" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="42" stopIfTrue="1">
+      <formula>ISTEXT($C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D65536">
+    <cfRule type="expression" dxfId="143" priority="19" stopIfTrue="1">
+      <formula>ISNUMBER($D2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="20" stopIfTrue="1">
+      <formula>LEN($D2)&lt;&gt;2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="21" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="expression" dxfId="166" priority="41" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="140" priority="66" stopIfTrue="1" operator="greaterThan">
+      <formula>113</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="63" stopIfTrue="1" operator="greaterThan">
+      <formula>621</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="41" stopIfTrue="1">
       <formula>ISTEXT($G2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="47" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="63" stopIfTrue="1" operator="greaterThan">
-      <formula>621</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="64" stopIfTrue="1" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H65536">
+    <cfRule type="cellIs" dxfId="134" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="50" stopIfTrue="1" operator="greaterThan">
+      <formula>150</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="18" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="40" stopIfTrue="1">
+      <formula>ISTEXT($H2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I65536">
+    <cfRule type="cellIs" dxfId="130" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="66" stopIfTrue="1" operator="greaterThan">
-      <formula>113</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="163" priority="36" stopIfTrue="1">
-      <formula>ISTEXT($K2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="45" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="59" stopIfTrue="1" operator="greaterThan">
-      <formula>202.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="160" priority="40" stopIfTrue="1">
-      <formula>ISTEXT($H2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="50" stopIfTrue="1" operator="greaterThan">
-      <formula>150</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I65536">
+    <cfRule type="cellIs" dxfId="129" priority="39" stopIfTrue="1" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="16" stopIfTrue="1">
+      <formula>ISTEXT($I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J65536">
     <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="125" priority="1" stopIfTrue="1">
+      <formula>$I2&amp;$J2=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J65536">
+    <cfRule type="cellIs" dxfId="124" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="49" stopIfTrue="1">
       <formula>ISTEXT($J2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="155" priority="48" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K2:K65536">
+    <cfRule type="expression" dxfId="121" priority="36" stopIfTrue="1">
+      <formula>ISTEXT($K2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="45" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="154" priority="42" stopIfTrue="1">
-      <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="16" stopIfTrue="1">
-      <formula>ISTEXT($I2)</formula>
+    <cfRule type="cellIs" dxfId="119" priority="58" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="59" stopIfTrue="1" operator="greaterThan">
+      <formula>202.8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="152" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="33" stopIfTrue="1">
       <formula>ISTEXT($L2)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:AA65536 E2:F65536">
-    <cfRule type="expression" dxfId="151" priority="6" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P65536">
-    <cfRule type="cellIs" dxfId="150" priority="26" stopIfTrue="1" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T65536">
-    <cfRule type="cellIs" dxfId="149" priority="25" stopIfTrue="1" operator="notEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X65536">
-    <cfRule type="cellIs" dxfId="148" priority="24" stopIfTrue="1" operator="notEqual">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="147" priority="22" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D65536">
-    <cfRule type="expression" dxfId="145" priority="19" stopIfTrue="1">
-      <formula>ISNUMBER($D2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="20" stopIfTrue="1">
-      <formula>LEN($D2)&lt;&gt;2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="21" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="142" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="67" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:O65536">
+    <cfRule type="cellIs" dxfId="113" priority="30" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="18" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="140" priority="1" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="14" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="39" stopIfTrue="1" operator="greaterThan">
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="137" priority="9" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="11" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:O65536">
-    <cfRule type="cellIs" dxfId="134" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O65536">
-    <cfRule type="cellIs" dxfId="133" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O65536">
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:O65536">
-    <cfRule type="cellIs" dxfId="132" priority="7" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="7" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:AA65536 E2:F65536">
+    <cfRule type="expression" dxfId="110" priority="6" stopIfTrue="1">
+      <formula>ISTEXT(E2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P65536">
+    <cfRule type="cellIs" dxfId="109" priority="26" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R65536">
-    <cfRule type="expression" dxfId="131" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="4" stopIfTrue="1">
       <formula>LEN(RIGHT($R2,LEN($R2)-FIND(".",$Q2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T65536">
+    <cfRule type="cellIs" dxfId="107" priority="25" stopIfTrue="1" operator="notEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V65536">
+    <cfRule type="expression" dxfId="106" priority="2" stopIfTrue="1">
+      <formula>LEN(RIGHT($V2,LEN($V2)-FIND(".",$V2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X65536">
+    <cfRule type="cellIs" dxfId="105" priority="24" stopIfTrue="1" operator="notEqual">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="expression" dxfId="130" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="3" stopIfTrue="1">
       <formula>LEN(RIGHT($Z2,LEN($Z2)-FIND(".",$Z2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="expression" dxfId="129" priority="2" stopIfTrue="1">
-      <formula>LEN(RIGHT($V2,LEN($V2)-FIND(".",$V2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5620,8 +4867,7 @@
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
@@ -5662,10 +4908,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -5680,56 +4926,56 @@
       <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="25" t="s">
+      <c r="K1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>78</v>
+      <c r="Q1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>10</v>
@@ -5769,212 +5015,129 @@
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="AB2" s="10">
+      <c r="AB2" s="1">
         <v>1</v>
       </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10">
+      <c r="AF2" s="1">
         <v>2</v>
       </c>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
+      <c r="AJ2" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="120" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="40" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="119" priority="39" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="102" priority="37" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="39" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="118" priority="37" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D65536">
-    <cfRule type="expression" dxfId="116" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="34" stopIfTrue="1">
       <formula>ISNUMBER($D2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="35" stopIfTrue="1">
       <formula>LEN($D2)&lt;&gt;2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="36" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" dxfId="113" priority="32" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="expression" dxfId="96" priority="31" stopIfTrue="1">
+      <formula>ISTEXT($N2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="32" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" priority="29" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="31" stopIfTrue="1">
-      <formula>ISTEXT($N2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" dxfId="110" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="109" priority="25" stopIfTrue="1">
-      <formula>ISTEXT(H2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="108" priority="27" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="107" priority="28" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="106" priority="26" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="105" priority="20" stopIfTrue="1">
-      <formula>ISTEXT(I2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" dxfId="104" priority="22" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" dxfId="103" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" dxfId="102" priority="21" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="101" priority="15" stopIfTrue="1">
-      <formula>ISTEXT(J2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="cellIs" dxfId="100" priority="17" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="cellIs" dxfId="99" priority="18" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
+  <conditionalFormatting sqref="G2:J65536">
     <cfRule type="cellIs" priority="14" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="cellIs" dxfId="98" priority="16" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="17" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:J65536">
+    <cfRule type="expression" dxfId="92" priority="15" stopIfTrue="1">
+      <formula>ISTEXT(H2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="16" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="18" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="equal">
+      <formula>-9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB65536">
+    <cfRule type="cellIs" dxfId="88" priority="9" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AM65536">
-    <cfRule type="expression" dxfId="97" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="6" stopIfTrue="1">
       <formula>ISTEXT(AB2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="cellIs" dxfId="96" priority="9" stopIfTrue="1" operator="notEqual">
-      <formula>1</formula>
+  <conditionalFormatting sqref="AD2:AD65536">
+    <cfRule type="expression" dxfId="86" priority="5" stopIfTrue="1">
+      <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="cellIs" dxfId="95" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="85" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH65536">
+    <cfRule type="expression" dxfId="84" priority="3" stopIfTrue="1">
+      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AJ65536">
-    <cfRule type="cellIs" dxfId="94" priority="7" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="7" stopIfTrue="1" operator="notEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="expression" dxfId="93" priority="5" stopIfTrue="1">
-      <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AL65536">
-    <cfRule type="expression" dxfId="92" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="4" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH65536">
-    <cfRule type="expression" dxfId="91" priority="3" stopIfTrue="1">
-      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="cellIs" dxfId="90" priority="1" stopIfTrue="1" operator="equal">
-      <formula>-9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5983,7 +5146,7 @@
     <col min="2" max="2" width="4.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -6018,10 +5181,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -6108,7 +5271,7 @@
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B2"/>
       <c r="C2">
@@ -6199,7 +5362,7 @@
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B3"/>
       <c r="C3">
@@ -6290,7 +5453,7 @@
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="B4"/>
       <c r="C4">
@@ -6381,7 +5544,7 @@
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B5"/>
       <c r="C5">
@@ -6472,7 +5635,7 @@
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B6"/>
       <c r="C6">
@@ -6563,7 +5726,7 @@
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B7"/>
       <c r="C7">
@@ -6654,7 +5817,7 @@
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B8"/>
       <c r="C8">
@@ -6745,7 +5908,7 @@
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B9"/>
       <c r="C9">
@@ -6836,7 +5999,7 @@
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B10"/>
       <c r="C10">
@@ -6927,7 +6090,7 @@
     </row>
     <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B11"/>
       <c r="C11">
@@ -7018,7 +6181,7 @@
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B12"/>
       <c r="C12">
@@ -7109,7 +6272,7 @@
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B13"/>
       <c r="C13">
@@ -7200,7 +6363,7 @@
     </row>
     <row r="14" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B14"/>
       <c r="C14">
@@ -7291,7 +6454,7 @@
     </row>
     <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B15"/>
       <c r="C15">
@@ -7382,7 +6545,7 @@
     </row>
     <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B16"/>
       <c r="C16">
@@ -7473,7 +6636,7 @@
     </row>
     <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B17"/>
       <c r="C17">
@@ -7564,7 +6727,7 @@
     </row>
     <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B18"/>
       <c r="C18">
@@ -7655,7 +6818,7 @@
     </row>
     <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B19"/>
       <c r="C19">
@@ -7746,7 +6909,7 @@
     </row>
     <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B20"/>
       <c r="C20">
@@ -7837,7 +7000,7 @@
     </row>
     <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B21"/>
       <c r="C21">
@@ -7928,7 +7091,7 @@
     </row>
     <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B22"/>
       <c r="C22">
@@ -8019,7 +7182,7 @@
     </row>
     <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="B23"/>
       <c r="C23">
@@ -8110,7 +7273,7 @@
     </row>
     <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B24"/>
       <c r="C24">
@@ -8201,7 +7364,7 @@
     </row>
     <row r="25" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="B25"/>
       <c r="C25">
@@ -8291,276 +7454,239 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N65536">
-    <cfRule type="cellIs" dxfId="89" priority="67" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="68" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
+  <conditionalFormatting sqref="A2:A65536">
+    <cfRule type="cellIs" dxfId="81" priority="48" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C65536">
+    <cfRule type="cellIs" dxfId="80" priority="22" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="23" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="42" stopIfTrue="1">
+      <formula>ISTEXT($C2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D65536">
+    <cfRule type="expression" dxfId="77" priority="19" stopIfTrue="1">
+      <formula>ISNUMBER($D2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="20" stopIfTrue="1">
+      <formula>LEN($D2)&lt;&gt;2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="21" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="expression" dxfId="87" priority="41" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="74" priority="64" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="63" stopIfTrue="1" operator="greaterThan">
+      <formula>1345</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="47" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="41" stopIfTrue="1">
       <formula>ISTEXT($G2)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="greaterThan">
+      <formula>590</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H65536">
+    <cfRule type="cellIs" dxfId="68" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="18" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="63" stopIfTrue="1" operator="greaterThan">
-      <formula>1345</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="50" stopIfTrue="1" operator="greaterThan">
+      <formula>150</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="40" stopIfTrue="1">
+      <formula>ISTEXT($H2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:I65536">
+    <cfRule type="cellIs" dxfId="64" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="65" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="66" stopIfTrue="1" operator="greaterThan">
-      <formula>590</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="cellIs" dxfId="84" priority="61" stopIfTrue="1" operator="greaterThan">
-      <formula>100</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="62" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K65536">
-    <cfRule type="expression" dxfId="82" priority="36" stopIfTrue="1">
-      <formula>ISTEXT($K2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="45" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="58" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="59" stopIfTrue="1" operator="greaterThan">
-      <formula>202.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="60" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M65536">
-    <cfRule type="expression" dxfId="79" priority="34" stopIfTrue="1">
-      <formula>ISTEXT($M2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="44" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="55" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="56" stopIfTrue="1" operator="greaterThan">
-      <formula>300</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="57" stopIfTrue="1" operator="lessThan">
-      <formula>1.7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L65536">
-    <cfRule type="expression" dxfId="76" priority="35" stopIfTrue="1">
-      <formula>ISTEXT($L2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="43" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="52" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="53" stopIfTrue="1" operator="greaterThan">
-      <formula>117</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="54" stopIfTrue="1" operator="lessThan">
-      <formula>0.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="expression" dxfId="73" priority="40" stopIfTrue="1">
-      <formula>ISTEXT($H2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="50" stopIfTrue="1" operator="greaterThan">
-      <formula>150</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="51" stopIfTrue="1" operator="lessThan">
-      <formula>0.1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I65536">
+    <cfRule type="expression" dxfId="63" priority="16" stopIfTrue="1">
+      <formula>ISTEXT($I2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="39" stopIfTrue="1" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J65536">
+    <cfRule type="expression" dxfId="61" priority="1" stopIfTrue="1">
+      <formula>$I2&amp;$J2=""</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="10" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="12" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="11" stopIfTrue="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="29" stopIfTrue="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J65536">
+    <cfRule type="cellIs" dxfId="58" priority="12" stopIfTrue="1" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="37" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="49" stopIfTrue="1">
       <formula>ISTEXT($J2)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A65536">
-    <cfRule type="cellIs" dxfId="68" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="38" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K65536">
+    <cfRule type="cellIs" dxfId="55" priority="60" stopIfTrue="1" operator="lessThan">
+      <formula>0.1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="59" stopIfTrue="1" operator="greaterThan">
+      <formula>202.8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="36" stopIfTrue="1">
+      <formula>ISTEXT($K2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:M65536">
+    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="43" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:R65536">
-    <cfRule type="expression" dxfId="67" priority="32" stopIfTrue="1">
-      <formula>ISTEXT(O2)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="46" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="65" priority="42" stopIfTrue="1">
-      <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="16" stopIfTrue="1">
-      <formula>ISTEXT($I2)</formula>
+  <conditionalFormatting sqref="L2:L65536">
+    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="lessThan">
+      <formula>0.4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="35" stopIfTrue="1">
+      <formula>ISTEXT($L2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="53" stopIfTrue="1" operator="greaterThan">
+      <formula>117</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M65536">
+    <cfRule type="expression" dxfId="47" priority="34" stopIfTrue="1">
+      <formula>ISTEXT($M2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="56" stopIfTrue="1" operator="greaterThan">
+      <formula>300</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="57" stopIfTrue="1" operator="lessThan">
+      <formula>1.7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N65536 S2:U65536">
+    <cfRule type="cellIs" dxfId="44" priority="30" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N65536">
     <cfRule type="cellIs" priority="8" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="33" stopIfTrue="1">
       <formula>ISTEXT($N2)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:AG65536 E2:F65536">
-    <cfRule type="expression" dxfId="62" priority="6" stopIfTrue="1">
-      <formula>ISTEXT(E2)</formula>
+    <cfRule type="cellIs" dxfId="42" priority="67" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="68" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:R65534">
-    <cfRule type="expression" dxfId="61" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="27" stopIfTrue="1">
       <formula>SUM($O2:$R2)&lt;97</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="28" stopIfTrue="1">
       <formula>SUM($O2:$R2)&gt;103</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V65536">
-    <cfRule type="cellIs" dxfId="59" priority="26" stopIfTrue="1" operator="notEqual">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z65536">
-    <cfRule type="cellIs" dxfId="58" priority="25" stopIfTrue="1" operator="notEqual">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="cellIs" dxfId="57" priority="24" stopIfTrue="1" operator="notEqual">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="56" priority="22" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="23" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D65536">
-    <cfRule type="expression" dxfId="54" priority="19" stopIfTrue="1">
-      <formula>ISNUMBER($D2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="20" stopIfTrue="1">
-      <formula>LEN($D2)&lt;&gt;2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="21" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="O2:R65536">
+    <cfRule type="cellIs" dxfId="38" priority="46" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H65536">
-    <cfRule type="cellIs" dxfId="51" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="61" stopIfTrue="1" operator="greaterThan">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="62" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="18" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I65536">
-    <cfRule type="expression" dxfId="49" priority="1" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="14" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="15" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" stopIfTrue="1" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="39" stopIfTrue="1" operator="greaterThan">
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J65536">
-    <cfRule type="expression" dxfId="46" priority="9" stopIfTrue="1">
-      <formula>$I2&amp;$J2=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="greaterThan">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="38" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N65536 S2:U65536">
-    <cfRule type="cellIs" dxfId="43" priority="30" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
+    <cfRule type="expression" dxfId="35" priority="32" stopIfTrue="1">
+      <formula>ISTEXT(O2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O65535:R65536">
+    <cfRule type="expression" dxfId="34" priority="180" stopIfTrue="1">
+      <formula>SUM($O65535:$R65536)&lt;97</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="181" stopIfTrue="1">
+      <formula>SUM($O65535:$R65536)&gt;103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="42" priority="31" stopIfTrue="1" operator="lessThan">
-      <formula>1.2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
+    <cfRule type="cellIs" dxfId="32" priority="7" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="5" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U65536">
-    <cfRule type="cellIs" dxfId="41" priority="7" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
+    <cfRule type="cellIs" dxfId="31" priority="31" stopIfTrue="1" operator="lessThan">
+      <formula>1.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:AG65536 E2:F65536">
+    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+      <formula>ISTEXT(E2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V65536">
+    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="notEqual">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X65536">
-    <cfRule type="expression" dxfId="40" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="4" stopIfTrue="1">
       <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z65536">
+    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="notEqual">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AB65536">
+    <cfRule type="expression" dxfId="26" priority="2" stopIfTrue="1">
+      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD65536">
+    <cfRule type="cellIs" dxfId="25" priority="24" stopIfTrue="1" operator="notEqual">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="expression" dxfId="38" priority="2" stopIfTrue="1">
-      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O65535:R65536">
-    <cfRule type="expression" dxfId="37" priority="180" stopIfTrue="1">
-      <formula>SUM($O65535:$R65536)&lt;97</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="181" stopIfTrue="1">
-      <formula>SUM($O65535:$R65536)&gt;103</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.47244094488188981" right="0.43307086614173229" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8569,11 +7695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AM11" sqref="AM11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8614,10 +7740,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -9478,7 +8604,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>2018</v>
@@ -9564,7 +8690,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>2016</v>
@@ -9650,7 +8776,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C13">
         <v>2018</v>
@@ -10510,7 +9636,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <v>2018</v>
@@ -10596,7 +9722,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>2016</v>
@@ -10682,7 +9808,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <v>2018</v>
@@ -10768,16 +9894,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="expression" dxfId="23" priority="3" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10786,11 +9910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10817,7 +9941,7 @@
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="174" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="163.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10830,10 +9954,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -10902,16 +10026,16 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>2016</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>40000</v>
@@ -10973,16 +10097,16 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>2017</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>40000</v>
@@ -11044,16 +10168,16 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C4">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>40000</v>
@@ -11115,16 +10239,16 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>2016</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>39840</v>
@@ -11186,16 +10310,16 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>2017</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>39840</v>
@@ -11257,16 +10381,16 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <v>39840</v>
@@ -11328,16 +10452,16 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>2017</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E8">
         <v>25800</v>
@@ -11399,16 +10523,16 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>2016</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>39000</v>
@@ -11470,16 +10594,16 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>2017</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>39000</v>
@@ -11541,16 +10665,16 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>2018</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>39000</v>
@@ -11612,16 +10736,16 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>2016</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E12">
         <v>35840</v>
@@ -11683,16 +10807,16 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>2018</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>35840</v>
@@ -11754,16 +10878,16 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>2016</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>40000</v>
@@ -11825,16 +10949,16 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>2017</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>40000</v>
@@ -11896,16 +11020,16 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>2018</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E16">
         <v>40000</v>
@@ -11967,16 +11091,16 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>2016</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E17">
         <v>39840</v>
@@ -12038,16 +11162,16 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>2017</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <v>39840</v>
@@ -12109,16 +11233,16 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C19">
         <v>2018</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <v>39840</v>
@@ -12180,16 +11304,16 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>2017</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E20">
         <v>25800</v>
@@ -12251,16 +11375,16 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>2016</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <v>39000</v>
@@ -12322,16 +11446,16 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>2017</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>39000</v>
@@ -12393,16 +11517,16 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C23">
         <v>2018</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <v>39000</v>
@@ -12464,16 +11588,16 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C24">
         <v>2016</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E24">
         <v>35840</v>
@@ -12535,16 +11659,16 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C25">
         <v>2018</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E25">
         <v>35840</v>
@@ -12611,11 +11735,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12624,8 +11748,7 @@
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
@@ -12666,10 +11789,10 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -12684,56 +11807,56 @@
       <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="25" t="s">
+      <c r="K1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>78</v>
+      <c r="Q1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>10</v>
@@ -12773,27 +11896,24 @@
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
         <v>2018</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="1">
         <v>94200</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="1">
         <v>91000</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="1">
         <v>101.4</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
       <c r="K2" s="1">
         <v>3</v>
       </c>
@@ -12845,46 +11965,46 @@
       <c r="AA2" s="1">
         <v>50</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="1">
         <v>1</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="1">
         <v>6.2309999999999999</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="1">
         <v>21</v>
       </c>
-      <c r="AE2" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="AF2" s="10">
+      <c r="AE2" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="AF2" s="1">
         <v>2</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AG2" s="1">
         <v>6.5620000000000003</v>
       </c>
-      <c r="AH2" s="10">
+      <c r="AH2" s="1">
         <v>27</v>
       </c>
-      <c r="AI2" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="AJ2" s="10">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="10">
+      <c r="AI2" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="1">
         <v>6.4459999999999997</v>
       </c>
-      <c r="AL2" s="10">
+      <c r="AL2" s="1">
         <v>27</v>
       </c>
-      <c r="AM2" s="10">
+      <c r="AM2" s="1">
         <v>1.62</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>2018</v>
@@ -12892,10 +12012,10 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="1">
         <v>94200</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="1">
         <v>91000</v>
       </c>
       <c r="G3" s="1">
@@ -12990,27 +12110,24 @@
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
         <v>2019</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="1">
         <v>94200</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="1">
         <v>91000</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="1">
         <v>101.4</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
       <c r="K4" s="1">
         <v>3</v>
       </c>
@@ -13062,46 +12179,46 @@
       <c r="AA4" s="1">
         <v>50</v>
       </c>
-      <c r="AB4" s="10">
+      <c r="AB4" s="1">
         <v>1</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="1">
         <v>6.5119999999999996</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="1">
         <v>24</v>
       </c>
-      <c r="AE4" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="AF4" s="10">
+      <c r="AE4" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="AF4" s="1">
         <v>2</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="1">
         <v>6.6630000000000003</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="1">
         <v>27</v>
       </c>
-      <c r="AI4" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="AJ4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="10">
+      <c r="AI4" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="1">
         <v>6.3479999999999999</v>
       </c>
-      <c r="AL4" s="10">
+      <c r="AL4" s="1">
         <v>27</v>
       </c>
-      <c r="AM4" s="10">
+      <c r="AM4" s="1">
         <v>1.62</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1">
         <v>2019</v>
@@ -13109,10 +12226,10 @@
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="1">
         <v>94200</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="1">
         <v>91000</v>
       </c>
       <c r="G5" s="1">
@@ -13213,16 +12330,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="expression" dxfId="19" priority="34" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="19" priority="32" stopIfTrue="1" operator="greaterThan">
+      <formula>2027</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="33" stopIfTrue="1" operator="lessThan">
+      <formula>1990</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="34" stopIfTrue="1">
       <formula>ISTEXT($C2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C65536">
-    <cfRule type="cellIs" dxfId="18" priority="32" stopIfTrue="1" operator="greaterThan">
-      <formula>2027</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="33" stopIfTrue="1" operator="lessThan">
-      <formula>1990</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D65536">
@@ -13237,22 +12352,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" dxfId="13" priority="27" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="expression" dxfId="13" priority="26" stopIfTrue="1">
+      <formula>ISTEXT($N2)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="27" stopIfTrue="1" operator="greaterThan">
       <formula>366</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="28" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="28" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G65536">
-    <cfRule type="cellIs" priority="24" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G2:J65536">
+    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="26" stopIfTrue="1">
-      <formula>ISTEXT($N2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:J65536">
     <cfRule type="cellIs" dxfId="10" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -13263,53 +12376,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:J65536">
-    <cfRule type="cellIs" dxfId="8" priority="23" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="21" stopIfTrue="1" operator="greaterThan">
+      <formula>366</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="23" stopIfTrue="1" operator="lessThan">
       <formula>1.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:J65536">
-    <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="equal">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:J65536">
-    <cfRule type="cellIs" dxfId="7" priority="21" stopIfTrue="1" operator="greaterThan">
-      <formula>366</formula>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>-9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AB65536">
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AD2:AD65536">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF2:AF65536">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="notEqual">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH65536">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AJ2:AJ65536">
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD65536">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>LEN(RIGHT($X2,LEN($X2)-FIND(".",$W2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AL2:AL65536">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>LEN(RIGHT($AF2,LEN($AF2)-FIND(".",$AF2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH65536">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>LEN(RIGHT($AB2,LEN($AB2)-FIND(".",$AB2)))&lt;&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <formula>-9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
